--- a/运营/app数据-7.31.xlsx
+++ b/运营/app数据-7.31.xlsx
@@ -5,27 +5,28 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin_zhou/Documents/项目管理/项目数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/go/运营/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320"/>
+    <workbookView xWindow="6000" yWindow="800" windowWidth="25600" windowHeight="14320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总及分析" sheetId="14" r:id="rId1"/>
-    <sheet name="淘淘向右走" sheetId="3" r:id="rId2"/>
-    <sheet name="葡萄数学派对" sheetId="2" r:id="rId3"/>
-    <sheet name="葡萄逻辑派对" sheetId="4" r:id="rId4"/>
-    <sheet name="魔方" sheetId="5" r:id="rId5"/>
-    <sheet name="葡萄英语启蒙1" sheetId="6" r:id="rId6"/>
-    <sheet name="葡萄英语启蒙2" sheetId="7" r:id="rId7"/>
-    <sheet name="哈泥海洋" sheetId="8" r:id="rId8"/>
-    <sheet name="哈泥水族馆" sheetId="9" r:id="rId9"/>
-    <sheet name="涂涂世界" sheetId="11" r:id="rId10"/>
-    <sheet name="班得瑞的奇幻花园" sheetId="12" r:id="rId11"/>
-    <sheet name="淘淘的童话之旅" sheetId="13" r:id="rId12"/>
+    <sheet name="工作表1" sheetId="15" r:id="rId2"/>
+    <sheet name="淘淘向右走" sheetId="3" r:id="rId3"/>
+    <sheet name="葡萄数学派对" sheetId="2" r:id="rId4"/>
+    <sheet name="葡萄逻辑派对" sheetId="4" r:id="rId5"/>
+    <sheet name="魔方" sheetId="5" r:id="rId6"/>
+    <sheet name="葡萄英语启蒙1" sheetId="6" r:id="rId7"/>
+    <sheet name="葡萄英语启蒙2" sheetId="7" r:id="rId8"/>
+    <sheet name="哈泥海洋" sheetId="8" r:id="rId9"/>
+    <sheet name="哈泥水族馆" sheetId="9" r:id="rId10"/>
+    <sheet name="涂涂世界" sheetId="11" r:id="rId11"/>
+    <sheet name="班得瑞的奇幻花园" sheetId="12" r:id="rId12"/>
+    <sheet name="淘淘的童话之旅" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="67">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -831,73 +832,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,20 +889,65 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -954,6 +955,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1257,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:H46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1266,89 +1277,89 @@
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="65" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:27" s="84" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-    </row>
-    <row r="2" spans="1:27" s="67" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+    </row>
+    <row r="2" spans="1:27" s="86" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="84" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="81" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="70" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="73" t="s">
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="75"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="77"/>
     </row>
     <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2358,72 +2369,72 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
     </row>
-    <row r="18" spans="1:27" s="69" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:27" s="88" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="87" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="88" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
+    <row r="19" spans="1:27" s="79" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="78" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89" t="s">
+    <row r="20" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="91"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
     </row>
     <row r="21" spans="1:27" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="52" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="61" t="s">
+      <c r="L21" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="52" t="s">
         <v>7</v>
       </c>
@@ -2431,21 +2442,21 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
-      <c r="T21" s="53" t="s">
+      <c r="T21" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="54" t="s">
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
     </row>
     <row r="22" spans="1:27" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
@@ -2777,89 +2788,89 @@
         <v>770</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="88" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87" t="s">
+    <row r="26" spans="1:27" s="79" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="78" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="89" t="s">
+    <row r="27" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="91"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
     </row>
     <row r="28" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="76" t="s">
+      <c r="A28" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="79" t="s">
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81" t="s">
+      <c r="H28" s="65"/>
+      <c r="I28" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84" t="s">
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="85"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="81" t="s">
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="70" t="s">
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="73" t="s">
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="75"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="77"/>
     </row>
     <row r="29" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
@@ -3191,41 +3202,41 @@
         <v>743</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="56" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
+    <row r="33" spans="1:27" s="90" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="89" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
+    <row r="34" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="59" t="s">
+      <c r="A35" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="60"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="52" t="s">
         <v>11</v>
       </c>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
-      <c r="L35" s="61" t="s">
+      <c r="L35" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="52" t="s">
         <v>7</v>
       </c>
@@ -3233,21 +3244,21 @@
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
       <c r="S35" s="52"/>
-      <c r="T35" s="53" t="s">
+      <c r="T35" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="54" t="s">
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="55"/>
     </row>
     <row r="36" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="41" t="s">
         <v>3</v>
       </c>
@@ -3579,41 +3590,41 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="56" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
+    <row r="40" spans="1:27" s="90" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="89" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62" t="s">
+    <row r="41" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="59" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="59" t="s">
+      <c r="A42" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60" t="s">
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="60"/>
+      <c r="H42" s="81"/>
       <c r="I42" s="52" t="s">
         <v>11</v>
       </c>
       <c r="J42" s="52"/>
       <c r="K42" s="52"/>
-      <c r="L42" s="61" t="s">
+      <c r="L42" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
       <c r="O42" s="52" t="s">
         <v>7</v>
       </c>
@@ -3621,21 +3632,21 @@
       <c r="Q42" s="52"/>
       <c r="R42" s="52"/>
       <c r="S42" s="52"/>
-      <c r="T42" s="53" t="s">
+      <c r="T42" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="54" t="s">
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
     </row>
     <row r="43" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="41" t="s">
         <v>3</v>
       </c>
@@ -3967,8 +3978,8 @@
         <v>35805</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="56" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57" t="s">
+    <row r="47" spans="1:27" s="90" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="91" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4172,42 +4183,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:S3"/>
     <mergeCell ref="O42:S42"/>
     <mergeCell ref="T42:X42"/>
     <mergeCell ref="Y42:AA42"/>
@@ -4224,6 +4199,42 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4232,6 +4243,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B19" sqref="B19:V22"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>42942</v>
+      </c>
+      <c r="B2" s="2">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>145</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>3805</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1617</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5422</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2.5462962962962961E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3.4027777777777784E-3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>42941</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>3798</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1580</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1">
+        <v>6.828703703703704E-3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3.2291666666666666E-3</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>42940</v>
+      </c>
+      <c r="B4" s="2">
+        <v>196</v>
+      </c>
+      <c r="C4" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>3792</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1576</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1">
+        <v>5.7523148148148143E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9.6527777777777775E-3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>42939</v>
+      </c>
+      <c r="B5" s="2">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>3785</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1566</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.1712962962962958E-3</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>42938</v>
+      </c>
+      <c r="B6" s="2">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>3778</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1561</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1">
+        <v>7.013888888888889E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6.0069444444444441E-3</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>42937</v>
+      </c>
+      <c r="B7" s="2">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>3775</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1556</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1">
+        <v>3.5532407407407405E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8.217592592592594E-3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>42936</v>
+      </c>
+      <c r="B8" s="2">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>3771</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1552</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="1">
+        <v>6.6203703703703702E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>7.0601851851851841E-3</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="21">
+        <f>SUM(B2:B8)</f>
+        <v>442</v>
+      </c>
+      <c r="C9" s="21">
+        <f>SUM(C2:C8)</f>
+        <v>388</v>
+      </c>
+      <c r="D9" s="17">
+        <v>830</v>
+      </c>
+      <c r="E9" s="21">
+        <f>SUM(E2:E8)</f>
+        <v>87</v>
+      </c>
+      <c r="F9" s="21">
+        <f>SUM(F2:F8)</f>
+        <v>194</v>
+      </c>
+      <c r="G9" s="17">
+        <v>281</v>
+      </c>
+      <c r="H9" s="21">
+        <f>SUM(H2:H8)</f>
+        <v>39</v>
+      </c>
+      <c r="I9" s="21">
+        <f>SUM(I2:I8)</f>
+        <v>75</v>
+      </c>
+      <c r="J9" s="17">
+        <v>114</v>
+      </c>
+      <c r="K9" s="21">
+        <f>SUM(K2:K8)</f>
+        <v>26504</v>
+      </c>
+      <c r="L9" s="21">
+        <f>SUM(L2:L8)</f>
+        <v>11008</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="21">
+        <v>4.9454365079365081E-3</v>
+      </c>
+      <c r="O9" s="21">
+        <v>5.82010582010582E-3</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>42935</v>
+      </c>
+      <c r="B10" s="2">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>194</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>3766</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1542</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1">
+        <v>4.2939814814814811E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3.7500000000000003E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>42934</v>
+      </c>
+      <c r="B11" s="2">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2">
+        <v>134</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>3760</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1503</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1">
+        <v>4.0162037037037033E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.3726851851851851E-3</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>42933</v>
+      </c>
+      <c r="B12" s="2">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>440</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>74</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>3755</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1460</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1">
+        <v>4.0624999999999993E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>42932</v>
+      </c>
+      <c r="B13" s="2">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>3750</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1386</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1">
+        <v>4.1319444444444442E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>42931</v>
+      </c>
+      <c r="B14" s="2">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2">
+        <v>111</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>66</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>47</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>3743</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1">
+        <v>3.2060185185185191E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>9.6990740740740735E-3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>42930</v>
+      </c>
+      <c r="B15" s="2">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>3736</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1329</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1">
+        <v>2.4652777777777776E-3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4.9652777777777777E-3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>42929</v>
+      </c>
+      <c r="B16" s="2">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2">
+        <v>112</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>3730</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1308</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1">
+        <v>2.0949074074074073E-3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>7.4537037037037028E-3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21">
+        <f>SUM(B10:B16)</f>
+        <v>305</v>
+      </c>
+      <c r="C17" s="21">
+        <f>SUM(C10:C16)</f>
+        <v>1104</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1409</v>
+      </c>
+      <c r="E17" s="21">
+        <f>SUM(E10:E16)</f>
+        <v>95</v>
+      </c>
+      <c r="F17" s="21">
+        <f>SUM(F10:F16)</f>
+        <v>361</v>
+      </c>
+      <c r="G17" s="17">
+        <v>456</v>
+      </c>
+      <c r="H17" s="21">
+        <f>SUM(H10:H16)</f>
+        <v>44</v>
+      </c>
+      <c r="I17" s="21">
+        <f>SUM(I10:I16)</f>
+        <v>256</v>
+      </c>
+      <c r="J17" s="17">
+        <v>300</v>
+      </c>
+      <c r="K17" s="21">
+        <f>SUM(K10:K16)</f>
+        <v>26240</v>
+      </c>
+      <c r="L17" s="21">
+        <f>SUM(L10:L16)</f>
+        <v>9904</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="21">
+        <v>3.4672619047619044E-3</v>
+      </c>
+      <c r="O17" s="21">
+        <v>4.5916005291005294E-3</v>
+      </c>
+      <c r="P17" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>42928</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2">
+        <v>263</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>39</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>3722</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1286</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1">
+        <v>2.0138888888888888E-3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>42927</v>
+      </c>
+      <c r="B19" s="2">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>3717</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1247</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="1">
+        <v>6.8171296296296287E-3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>7.0486111111111105E-3</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>42926</v>
+      </c>
+      <c r="B20" s="2">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>3713</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1206</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="1">
+        <v>2.3842592592592591E-3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3.2291666666666666E-3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>42925</v>
+      </c>
+      <c r="B21" s="2">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>3709</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1199</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5.4050925925925924E-3</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>42924</v>
+      </c>
+      <c r="B22" s="2">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>3706</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1197</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="1">
+        <v>1.2280092592592592E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>42923</v>
+      </c>
+      <c r="B23" s="2">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
+        <v>3699</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1187</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1">
+        <v>2.1874999999999998E-3</v>
+      </c>
+      <c r="O23" s="1">
+        <v>3.1018518518518522E-3</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>42922</v>
+      </c>
+      <c r="B24" s="2">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <v>3695</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1173</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="1">
+        <v>6.4930555555555549E-3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.4490740740740742E-2</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="21">
+        <f>SUM(B18:B24)</f>
+        <v>307</v>
+      </c>
+      <c r="C25" s="21">
+        <f>SUM(C18:C24)</f>
+        <v>502</v>
+      </c>
+      <c r="D25" s="17">
+        <v>809</v>
+      </c>
+      <c r="E25" s="21">
+        <f>SUM(E18:E24)</f>
+        <v>91</v>
+      </c>
+      <c r="F25" s="21">
+        <f>SUM(F18:F24)</f>
+        <v>218</v>
+      </c>
+      <c r="G25" s="17">
+        <v>309</v>
+      </c>
+      <c r="H25" s="21">
+        <f>SUM(H18:H24)</f>
+        <v>33</v>
+      </c>
+      <c r="I25" s="21">
+        <f>SUM(I18:I24)</f>
+        <v>122</v>
+      </c>
+      <c r="J25" s="17">
+        <v>155</v>
+      </c>
+      <c r="K25" s="21">
+        <f>SUM(K18:K24)</f>
+        <v>25961</v>
+      </c>
+      <c r="L25" s="21">
+        <f>SUM(L18:L24)</f>
+        <v>8495</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="21">
+        <v>4.9041005291005288E-3</v>
+      </c>
+      <c r="O25" s="21">
+        <v>5.9391534391534393E-3</v>
+      </c>
+      <c r="P25" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="19">
+        <v>42921</v>
+      </c>
+      <c r="B26" s="2">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>18</v>
+      </c>
+      <c r="F26" s="2">
+        <v>58</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>44</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>3689</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1164</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="1">
+        <v>4.5138888888888893E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3.4606481481481485E-3</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>42920</v>
+      </c>
+      <c r="B27" s="2">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2">
+        <v>15</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>3682</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1120</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1">
+        <v>3.8888888888888883E-3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>42919</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <v>34</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2">
+        <v>19</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>3676</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1105</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="1">
+        <v>5.2199074074074066E-3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>5.3240740740740748E-3</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="19">
+        <v>42918</v>
+      </c>
+      <c r="B29" s="2">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>3669</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1086</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="1">
+        <v>4.7916666666666672E-3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3.2523148148148151E-3</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>42917</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>29</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>9</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>3659</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1078</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="1">
+        <v>2.6967592592592594E-3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>4.31712962962963E-3</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>42916</v>
+      </c>
+      <c r="B31" s="2">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2">
+        <v>3650</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1069</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="1">
+        <v>1.9074074074074073E-2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>42915</v>
+      </c>
+      <c r="B32" s="2">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2">
+        <v>21</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2">
+        <v>13</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>3648</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1061</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="1">
+        <v>4.1319444444444442E-3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.8518518518518517E-3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="21">
+        <f>SUM(B26:B32)</f>
+        <v>301</v>
+      </c>
+      <c r="C33" s="21">
+        <f>SUM(C26:C32)</f>
+        <v>427</v>
+      </c>
+      <c r="D33" s="17">
+        <v>728</v>
+      </c>
+      <c r="E33" s="21">
+        <f>SUM(E26:E32)</f>
+        <v>102</v>
+      </c>
+      <c r="F33" s="21">
+        <f>SUM(F26:F32)</f>
+        <v>223</v>
+      </c>
+      <c r="G33" s="17">
+        <v>325</v>
+      </c>
+      <c r="H33" s="21">
+        <f>SUM(H26:H32)</f>
+        <v>49</v>
+      </c>
+      <c r="I33" s="21">
+        <f>SUM(I26:I32)</f>
+        <v>116</v>
+      </c>
+      <c r="J33" s="17">
+        <v>165</v>
+      </c>
+      <c r="K33" s="21">
+        <f>SUM(K26:K32)</f>
+        <v>25673</v>
+      </c>
+      <c r="L33" s="21">
+        <f>SUM(L26:L32)</f>
+        <v>7683</v>
+      </c>
+      <c r="M33" s="17"/>
+      <c r="N33" s="21">
+        <v>6.3310185185185188E-3</v>
+      </c>
+      <c r="O33" s="21">
+        <v>3.8657407407407412E-3</v>
+      </c>
+      <c r="P33" s="21">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>42914</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>8</v>
+      </c>
+      <c r="I34" s="2">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>3640</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1048</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="1">
+        <v>2.0254629629629629E-3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1.877314814814815E-2</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="1">
+        <v>4.8148148148148152E-3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5.5324074074074069E-3</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H36" s="6">
+        <f>AVERAGE(H9,H17,H25,H33)/7</f>
+        <v>5.8928571428571432</v>
+      </c>
+      <c r="I36" s="6">
+        <f>AVERAGE(I9,I17,I25,I33)/7</f>
+        <v>20.321428571428573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
@@ -5762,7 +7423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
@@ -7305,7 +8966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
@@ -9269,10 +10930,2630 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="97"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="96">
+        <v>42953</v>
+      </c>
+      <c r="B2">
+        <v>633</v>
+      </c>
+      <c r="C2">
+        <v>194</v>
+      </c>
+      <c r="E2">
+        <v>171</v>
+      </c>
+      <c r="F2">
+        <v>119</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>41</v>
+      </c>
+      <c r="K2">
+        <v>1808</v>
+      </c>
+      <c r="L2">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="96">
+        <v>42952</v>
+      </c>
+      <c r="B3">
+        <v>1246</v>
+      </c>
+      <c r="C3">
+        <v>480</v>
+      </c>
+      <c r="E3">
+        <v>281</v>
+      </c>
+      <c r="F3">
+        <v>198</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>78</v>
+      </c>
+      <c r="K3">
+        <v>1766</v>
+      </c>
+      <c r="L3">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="96">
+        <v>42951</v>
+      </c>
+      <c r="B4">
+        <v>849</v>
+      </c>
+      <c r="C4">
+        <v>327</v>
+      </c>
+      <c r="E4">
+        <v>211</v>
+      </c>
+      <c r="F4">
+        <v>193</v>
+      </c>
+      <c r="H4">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>74</v>
+      </c>
+      <c r="K4">
+        <v>1706</v>
+      </c>
+      <c r="L4">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="96">
+        <v>42950</v>
+      </c>
+      <c r="B5">
+        <v>695</v>
+      </c>
+      <c r="C5">
+        <v>304</v>
+      </c>
+      <c r="E5">
+        <v>223</v>
+      </c>
+      <c r="F5">
+        <v>184</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>76</v>
+      </c>
+      <c r="K5">
+        <v>1665</v>
+      </c>
+      <c r="L5">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="96">
+        <v>42949</v>
+      </c>
+      <c r="B6">
+        <v>700</v>
+      </c>
+      <c r="C6">
+        <v>301</v>
+      </c>
+      <c r="E6">
+        <v>194</v>
+      </c>
+      <c r="F6">
+        <v>169</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>76</v>
+      </c>
+      <c r="K6">
+        <v>1627</v>
+      </c>
+      <c r="L6">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="96">
+        <v>42948</v>
+      </c>
+      <c r="B7">
+        <v>723</v>
+      </c>
+      <c r="C7">
+        <v>282</v>
+      </c>
+      <c r="E7">
+        <v>208</v>
+      </c>
+      <c r="F7">
+        <v>157</v>
+      </c>
+      <c r="H7">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>75</v>
+      </c>
+      <c r="K7">
+        <v>1601</v>
+      </c>
+      <c r="L7">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="96">
+        <v>42947</v>
+      </c>
+      <c r="B8">
+        <v>941</v>
+      </c>
+      <c r="C8">
+        <v>309</v>
+      </c>
+      <c r="E8">
+        <v>226</v>
+      </c>
+      <c r="F8">
+        <v>181</v>
+      </c>
+      <c r="H8">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>87</v>
+      </c>
+      <c r="K8">
+        <v>1564</v>
+      </c>
+      <c r="L8">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="21">
+        <f>SUM(B2:B8)</f>
+        <v>5787</v>
+      </c>
+      <c r="C9" s="21">
+        <f>SUM(C2:C8)</f>
+        <v>2197</v>
+      </c>
+      <c r="D9" s="17">
+        <f>(B9+C9)</f>
+        <v>7984</v>
+      </c>
+      <c r="E9" s="21">
+        <f>SUM(E2:E8)</f>
+        <v>1514</v>
+      </c>
+      <c r="F9" s="21">
+        <f>SUM(F2:F8)</f>
+        <v>1201</v>
+      </c>
+      <c r="G9" s="17">
+        <f>(E9+F9)</f>
+        <v>2715</v>
+      </c>
+      <c r="H9" s="21">
+        <f>SUM(H2:H8)</f>
+        <v>278</v>
+      </c>
+      <c r="I9" s="21">
+        <f>SUM(I2:I8)</f>
+        <v>507</v>
+      </c>
+      <c r="J9" s="17">
+        <f>(H9+I9)</f>
+        <v>785</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="17">
+        <f>K2+L2</f>
+        <v>4057</v>
+      </c>
+      <c r="N9" s="21">
+        <v>2.1701388888888892E-2</v>
+      </c>
+      <c r="O9" s="21">
+        <v>8.7465277777777781E-2</v>
+      </c>
+      <c r="P9" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="96">
+        <v>42946</v>
+      </c>
+      <c r="B10">
+        <v>1097</v>
+      </c>
+      <c r="C10">
+        <v>468</v>
+      </c>
+      <c r="E10">
+        <v>273</v>
+      </c>
+      <c r="F10">
+        <v>231</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>114</v>
+      </c>
+      <c r="K10">
+        <v>1528</v>
+      </c>
+      <c r="L10">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="96">
+        <v>42945</v>
+      </c>
+      <c r="B11">
+        <v>1090</v>
+      </c>
+      <c r="C11">
+        <v>394</v>
+      </c>
+      <c r="E11">
+        <v>231</v>
+      </c>
+      <c r="F11">
+        <v>195</v>
+      </c>
+      <c r="H11">
+        <v>59</v>
+      </c>
+      <c r="I11">
+        <v>99</v>
+      </c>
+      <c r="K11">
+        <v>1458</v>
+      </c>
+      <c r="L11">
+        <v>1627</v>
+      </c>
+      <c r="P11">
+        <v>20.3</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="96">
+        <v>42944</v>
+      </c>
+      <c r="B12">
+        <v>620</v>
+      </c>
+      <c r="C12">
+        <v>256</v>
+      </c>
+      <c r="E12">
+        <v>166</v>
+      </c>
+      <c r="F12">
+        <v>152</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>66</v>
+      </c>
+      <c r="K12">
+        <v>1399</v>
+      </c>
+      <c r="L12">
+        <v>1528</v>
+      </c>
+      <c r="P12">
+        <v>11.1</v>
+      </c>
+      <c r="Q12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="96">
+        <v>42943</v>
+      </c>
+      <c r="B13">
+        <v>717</v>
+      </c>
+      <c r="C13">
+        <v>234</v>
+      </c>
+      <c r="E13">
+        <v>178</v>
+      </c>
+      <c r="F13">
+        <v>158</v>
+      </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>81</v>
+      </c>
+      <c r="K13">
+        <v>1372</v>
+      </c>
+      <c r="L13">
+        <v>1462</v>
+      </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="96">
+        <v>42942</v>
+      </c>
+      <c r="B14">
+        <v>781</v>
+      </c>
+      <c r="C14">
+        <v>240</v>
+      </c>
+      <c r="E14">
+        <v>193</v>
+      </c>
+      <c r="F14">
+        <v>149</v>
+      </c>
+      <c r="H14">
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>63</v>
+      </c>
+      <c r="K14">
+        <v>1348</v>
+      </c>
+      <c r="L14">
+        <v>1381</v>
+      </c>
+      <c r="P14">
+        <v>16.7</v>
+      </c>
+      <c r="Q14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="96">
+        <v>42941</v>
+      </c>
+      <c r="B15">
+        <v>752</v>
+      </c>
+      <c r="C15">
+        <v>221</v>
+      </c>
+      <c r="E15">
+        <v>174</v>
+      </c>
+      <c r="F15">
+        <v>133</v>
+      </c>
+      <c r="H15">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>62</v>
+      </c>
+      <c r="K15">
+        <v>1312</v>
+      </c>
+      <c r="L15">
+        <v>1318</v>
+      </c>
+      <c r="P15">
+        <v>27.6</v>
+      </c>
+      <c r="Q15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="96">
+        <v>42940</v>
+      </c>
+      <c r="B16">
+        <v>871</v>
+      </c>
+      <c r="C16">
+        <v>257</v>
+      </c>
+      <c r="E16">
+        <v>208</v>
+      </c>
+      <c r="F16">
+        <v>145</v>
+      </c>
+      <c r="H16">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <v>1283</v>
+      </c>
+      <c r="L16">
+        <v>1256</v>
+      </c>
+      <c r="P16">
+        <v>15.7</v>
+      </c>
+      <c r="Q16">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="21">
+        <f>SUM(B10:B16)</f>
+        <v>5928</v>
+      </c>
+      <c r="C17" s="21">
+        <f>SUM(C10:C16)</f>
+        <v>2070</v>
+      </c>
+      <c r="D17" s="17">
+        <f>(B17+C17)</f>
+        <v>7998</v>
+      </c>
+      <c r="E17" s="21">
+        <f>SUM(E10:E16)</f>
+        <v>1423</v>
+      </c>
+      <c r="F17" s="21">
+        <f>SUM(F10:F16)</f>
+        <v>1163</v>
+      </c>
+      <c r="G17" s="17">
+        <f>(E17+F17)</f>
+        <v>2586</v>
+      </c>
+      <c r="H17" s="21">
+        <f>SUM(H10:H16)</f>
+        <v>296</v>
+      </c>
+      <c r="I17" s="21">
+        <f>SUM(I10:I16)</f>
+        <v>555</v>
+      </c>
+      <c r="J17" s="17">
+        <f>(H17+I17)</f>
+        <v>851</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="17">
+        <f>K10+L10</f>
+        <v>3269</v>
+      </c>
+      <c r="N17" s="21">
+        <v>2.1701388888888892E-2</v>
+      </c>
+      <c r="O17" s="21">
+        <v>8.7465277777777781E-2</v>
+      </c>
+      <c r="P17" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="96">
+        <v>42939</v>
+      </c>
+      <c r="B18">
+        <v>1249</v>
+      </c>
+      <c r="C18">
+        <v>574</v>
+      </c>
+      <c r="E18">
+        <v>250</v>
+      </c>
+      <c r="F18">
+        <v>214</v>
+      </c>
+      <c r="H18">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>102</v>
+      </c>
+      <c r="K18">
+        <v>1232</v>
+      </c>
+      <c r="L18">
+        <v>1186</v>
+      </c>
+      <c r="P18">
+        <v>16.5</v>
+      </c>
+      <c r="Q18">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="96">
+        <v>42938</v>
+      </c>
+      <c r="B19">
+        <v>850</v>
+      </c>
+      <c r="C19">
+        <v>402</v>
+      </c>
+      <c r="E19">
+        <v>204</v>
+      </c>
+      <c r="F19">
+        <v>188</v>
+      </c>
+      <c r="H19">
+        <v>57</v>
+      </c>
+      <c r="I19">
+        <v>95</v>
+      </c>
+      <c r="K19">
+        <v>1147</v>
+      </c>
+      <c r="L19">
+        <v>1084</v>
+      </c>
+      <c r="P19">
+        <v>19.3</v>
+      </c>
+      <c r="Q19">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="96">
+        <v>42937</v>
+      </c>
+      <c r="B20">
+        <v>643</v>
+      </c>
+      <c r="C20">
+        <v>261</v>
+      </c>
+      <c r="E20">
+        <v>160</v>
+      </c>
+      <c r="F20">
+        <v>135</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>54</v>
+      </c>
+      <c r="K20">
+        <v>1090</v>
+      </c>
+      <c r="L20">
+        <v>989</v>
+      </c>
+      <c r="P20">
+        <v>4.5</v>
+      </c>
+      <c r="Q20">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="96">
+        <v>42936</v>
+      </c>
+      <c r="B21">
+        <v>610</v>
+      </c>
+      <c r="C21">
+        <v>231</v>
+      </c>
+      <c r="E21">
+        <v>154</v>
+      </c>
+      <c r="F21">
+        <v>119</v>
+      </c>
+      <c r="H21">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>1068</v>
+      </c>
+      <c r="L21">
+        <v>935</v>
+      </c>
+      <c r="P21">
+        <v>20.7</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="96">
+        <v>42935</v>
+      </c>
+      <c r="B22">
+        <v>665</v>
+      </c>
+      <c r="C22">
+        <v>176</v>
+      </c>
+      <c r="E22">
+        <v>158</v>
+      </c>
+      <c r="F22">
+        <v>88</v>
+      </c>
+      <c r="H22">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>1039</v>
+      </c>
+      <c r="L22">
+        <v>886</v>
+      </c>
+      <c r="P22">
+        <v>13.6</v>
+      </c>
+      <c r="Q22">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="96">
+        <v>42934</v>
+      </c>
+      <c r="B23">
+        <v>691</v>
+      </c>
+      <c r="C23">
+        <v>140</v>
+      </c>
+      <c r="E23">
+        <v>159</v>
+      </c>
+      <c r="F23">
+        <v>86</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>995</v>
+      </c>
+      <c r="L23">
+        <v>864</v>
+      </c>
+      <c r="P23">
+        <v>18.8</v>
+      </c>
+      <c r="Q23">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="96">
+        <v>42933</v>
+      </c>
+      <c r="B24">
+        <v>765</v>
+      </c>
+      <c r="C24">
+        <v>236</v>
+      </c>
+      <c r="E24">
+        <v>171</v>
+      </c>
+      <c r="F24">
+        <v>86</v>
+      </c>
+      <c r="H24">
+        <v>52</v>
+      </c>
+      <c r="I24">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>963</v>
+      </c>
+      <c r="L24">
+        <v>843</v>
+      </c>
+      <c r="P24">
+        <v>13.5</v>
+      </c>
+      <c r="Q24">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="21">
+        <f>SUM(B18:B24)</f>
+        <v>5473</v>
+      </c>
+      <c r="C25" s="21">
+        <f>SUM(C18:C24)</f>
+        <v>2020</v>
+      </c>
+      <c r="D25" s="17">
+        <f>(B25+C25)</f>
+        <v>7493</v>
+      </c>
+      <c r="E25" s="21">
+        <f>SUM(E18:E24)</f>
+        <v>1256</v>
+      </c>
+      <c r="F25" s="21">
+        <f>SUM(F18:F24)</f>
+        <v>916</v>
+      </c>
+      <c r="G25" s="17">
+        <f>(E25+F25)</f>
+        <v>2172</v>
+      </c>
+      <c r="H25" s="21">
+        <f>SUM(H18:H24)</f>
+        <v>321</v>
+      </c>
+      <c r="I25" s="21">
+        <f>SUM(I18:I24)</f>
+        <v>370</v>
+      </c>
+      <c r="J25" s="17">
+        <f>(H25+I25)</f>
+        <v>691</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="17">
+        <f>K18+L18</f>
+        <v>2418</v>
+      </c>
+      <c r="N25" s="21">
+        <v>2.1701388888888892E-2</v>
+      </c>
+      <c r="O25" s="21">
+        <v>8.7465277777777781E-2</v>
+      </c>
+      <c r="P25" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="96">
+        <v>42932</v>
+      </c>
+      <c r="B26">
+        <v>1127</v>
+      </c>
+      <c r="C26">
+        <v>390</v>
+      </c>
+      <c r="E26">
+        <v>213</v>
+      </c>
+      <c r="F26">
+        <v>131</v>
+      </c>
+      <c r="H26">
+        <v>87</v>
+      </c>
+      <c r="I26">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>911</v>
+      </c>
+      <c r="L26">
+        <v>816</v>
+      </c>
+      <c r="P26">
+        <v>21.8</v>
+      </c>
+      <c r="Q26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="96">
+        <v>42931</v>
+      </c>
+      <c r="B27">
+        <v>724</v>
+      </c>
+      <c r="C27">
+        <v>376</v>
+      </c>
+      <c r="E27">
+        <v>142</v>
+      </c>
+      <c r="F27">
+        <v>116</v>
+      </c>
+      <c r="H27">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>38</v>
+      </c>
+      <c r="K27">
+        <v>824</v>
+      </c>
+      <c r="L27">
+        <v>773</v>
+      </c>
+      <c r="P27">
+        <v>16.7</v>
+      </c>
+      <c r="Q27">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="96">
+        <v>42930</v>
+      </c>
+      <c r="B28">
+        <v>477</v>
+      </c>
+      <c r="C28">
+        <v>227</v>
+      </c>
+      <c r="E28">
+        <v>97</v>
+      </c>
+      <c r="F28">
+        <v>83</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>758</v>
+      </c>
+      <c r="L28">
+        <v>735</v>
+      </c>
+      <c r="P28">
+        <v>21.1</v>
+      </c>
+      <c r="Q28">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="96">
+        <v>42929</v>
+      </c>
+      <c r="B29">
+        <v>443</v>
+      </c>
+      <c r="C29">
+        <v>281</v>
+      </c>
+      <c r="E29">
+        <v>101</v>
+      </c>
+      <c r="F29">
+        <v>71</v>
+      </c>
+      <c r="H29">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>739</v>
+      </c>
+      <c r="L29">
+        <v>714</v>
+      </c>
+      <c r="P29">
+        <v>20</v>
+      </c>
+      <c r="Q29">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="96">
+        <v>42928</v>
+      </c>
+      <c r="B30">
+        <v>949</v>
+      </c>
+      <c r="C30">
+        <v>108</v>
+      </c>
+      <c r="E30">
+        <v>117</v>
+      </c>
+      <c r="F30">
+        <v>63</v>
+      </c>
+      <c r="H30">
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>714</v>
+      </c>
+      <c r="L30">
+        <v>698</v>
+      </c>
+      <c r="P30">
+        <v>4.8</v>
+      </c>
+      <c r="Q30">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="96">
+        <v>42927</v>
+      </c>
+      <c r="B31">
+        <v>751</v>
+      </c>
+      <c r="C31">
+        <v>117</v>
+      </c>
+      <c r="E31">
+        <v>110</v>
+      </c>
+      <c r="F31">
+        <v>66</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>693</v>
+      </c>
+      <c r="L31">
+        <v>683</v>
+      </c>
+      <c r="P31">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="96">
+        <v>42926</v>
+      </c>
+      <c r="B32">
+        <v>553</v>
+      </c>
+      <c r="C32">
+        <v>125</v>
+      </c>
+      <c r="E32">
+        <v>99</v>
+      </c>
+      <c r="F32">
+        <v>73</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32">
+        <v>22</v>
+      </c>
+      <c r="K32">
+        <v>658</v>
+      </c>
+      <c r="L32">
+        <v>670</v>
+      </c>
+      <c r="P32">
+        <v>6.3</v>
+      </c>
+      <c r="Q32">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="21">
+        <f>SUM(B26:B32)</f>
+        <v>5024</v>
+      </c>
+      <c r="C33" s="21">
+        <f>SUM(C26:C32)</f>
+        <v>1624</v>
+      </c>
+      <c r="D33" s="17">
+        <f>(B33+C33)</f>
+        <v>6648</v>
+      </c>
+      <c r="E33" s="21">
+        <f>SUM(E26:E32)</f>
+        <v>879</v>
+      </c>
+      <c r="F33" s="21">
+        <f>SUM(F26:F32)</f>
+        <v>603</v>
+      </c>
+      <c r="G33" s="17">
+        <f>(E33+F33)</f>
+        <v>1482</v>
+      </c>
+      <c r="H33" s="21">
+        <f>SUM(H26:H32)</f>
+        <v>285</v>
+      </c>
+      <c r="I33" s="21">
+        <f>SUM(I26:I32)</f>
+        <v>168</v>
+      </c>
+      <c r="J33" s="17">
+        <f>(H33+I33)</f>
+        <v>453</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="17">
+        <f>K26+L26</f>
+        <v>1727</v>
+      </c>
+      <c r="N33" s="21">
+        <v>2.1701388888888892E-2</v>
+      </c>
+      <c r="O33" s="21">
+        <v>8.7465277777777781E-2</v>
+      </c>
+      <c r="P33" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="96">
+        <v>42925</v>
+      </c>
+      <c r="B34">
+        <v>779</v>
+      </c>
+      <c r="C34">
+        <v>328</v>
+      </c>
+      <c r="E34">
+        <v>129</v>
+      </c>
+      <c r="F34">
+        <v>86</v>
+      </c>
+      <c r="H34">
+        <v>53</v>
+      </c>
+      <c r="I34">
+        <v>34</v>
+      </c>
+      <c r="K34">
+        <v>626</v>
+      </c>
+      <c r="L34">
+        <v>648</v>
+      </c>
+      <c r="P34">
+        <v>20.8</v>
+      </c>
+      <c r="Q34">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="96">
+        <v>42924</v>
+      </c>
+      <c r="B35">
+        <v>751</v>
+      </c>
+      <c r="C35">
+        <v>310</v>
+      </c>
+      <c r="E35">
+        <v>101</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <v>573</v>
+      </c>
+      <c r="L35">
+        <v>614</v>
+      </c>
+      <c r="P35">
+        <v>16.7</v>
+      </c>
+      <c r="Q35">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="96">
+        <v>42923</v>
+      </c>
+      <c r="B36">
+        <v>451</v>
+      </c>
+      <c r="C36">
+        <v>116</v>
+      </c>
+      <c r="E36">
+        <v>79</v>
+      </c>
+      <c r="F36">
+        <v>58</v>
+      </c>
+      <c r="H36">
+        <v>25</v>
+      </c>
+      <c r="I36">
+        <v>26</v>
+      </c>
+      <c r="K36">
+        <v>543</v>
+      </c>
+      <c r="L36">
+        <v>587</v>
+      </c>
+      <c r="P36">
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="96">
+        <v>42922</v>
+      </c>
+      <c r="B37">
+        <v>301</v>
+      </c>
+      <c r="C37">
+        <v>106</v>
+      </c>
+      <c r="E37">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <v>62</v>
+      </c>
+      <c r="H37">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>32</v>
+      </c>
+      <c r="K37">
+        <v>518</v>
+      </c>
+      <c r="L37">
+        <v>561</v>
+      </c>
+      <c r="P37">
+        <v>11.5</v>
+      </c>
+      <c r="Q37">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="96">
+        <v>42921</v>
+      </c>
+      <c r="B38">
+        <v>349</v>
+      </c>
+      <c r="C38">
+        <v>176</v>
+      </c>
+      <c r="E38">
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <v>61</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>492</v>
+      </c>
+      <c r="L38">
+        <v>529</v>
+      </c>
+      <c r="P38">
+        <v>14.3</v>
+      </c>
+      <c r="Q38">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="96">
+        <v>42920</v>
+      </c>
+      <c r="B39">
+        <v>517</v>
+      </c>
+      <c r="C39">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>36</v>
+      </c>
+      <c r="H39">
+        <v>27</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="K39">
+        <v>478</v>
+      </c>
+      <c r="L39">
+        <v>511</v>
+      </c>
+      <c r="P39">
+        <v>3.7</v>
+      </c>
+      <c r="Q39">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="96">
+        <v>42919</v>
+      </c>
+      <c r="B40">
+        <v>511</v>
+      </c>
+      <c r="C40">
+        <v>81</v>
+      </c>
+      <c r="E40">
+        <v>56</v>
+      </c>
+      <c r="F40">
+        <v>36</v>
+      </c>
+      <c r="H40">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>451</v>
+      </c>
+      <c r="L40">
+        <v>496</v>
+      </c>
+      <c r="P40">
+        <v>5.3</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="21">
+        <f>SUM(B34:B40)</f>
+        <v>3659</v>
+      </c>
+      <c r="C41" s="21">
+        <f>SUM(C34:C40)</f>
+        <v>1165</v>
+      </c>
+      <c r="D41" s="17">
+        <f>(B41+C41)</f>
+        <v>4824</v>
+      </c>
+      <c r="E41" s="21">
+        <f>SUM(E34:E40)</f>
+        <v>558</v>
+      </c>
+      <c r="F41" s="21">
+        <f>SUM(F34:F40)</f>
+        <v>429</v>
+      </c>
+      <c r="G41" s="17">
+        <f>(E41+F41)</f>
+        <v>987</v>
+      </c>
+      <c r="H41" s="21">
+        <f>SUM(H34:H40)</f>
+        <v>194</v>
+      </c>
+      <c r="I41" s="21">
+        <f>SUM(I34:I40)</f>
+        <v>159</v>
+      </c>
+      <c r="J41" s="17">
+        <f>(H41+I41)</f>
+        <v>353</v>
+      </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="17">
+        <f>K34+L34</f>
+        <v>1274</v>
+      </c>
+      <c r="N41" s="21">
+        <v>2.1701388888888892E-2</v>
+      </c>
+      <c r="O41" s="21">
+        <v>8.7465277777777781E-2</v>
+      </c>
+      <c r="P41" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="Q41" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="96">
+        <v>42918</v>
+      </c>
+      <c r="B42">
+        <v>294</v>
+      </c>
+      <c r="C42">
+        <v>78</v>
+      </c>
+      <c r="E42">
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>432</v>
+      </c>
+      <c r="L42">
+        <v>489</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="96">
+        <v>42917</v>
+      </c>
+      <c r="B43">
+        <v>250</v>
+      </c>
+      <c r="C43">
+        <v>91</v>
+      </c>
+      <c r="E43">
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <v>47</v>
+      </c>
+      <c r="H43">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+      <c r="K43">
+        <v>425</v>
+      </c>
+      <c r="L43">
+        <v>476</v>
+      </c>
+      <c r="P43">
+        <v>21.4</v>
+      </c>
+      <c r="Q43">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="96">
+        <v>42916</v>
+      </c>
+      <c r="B44">
+        <v>170</v>
+      </c>
+      <c r="C44">
+        <v>51</v>
+      </c>
+      <c r="E44">
+        <v>32</v>
+      </c>
+      <c r="F44">
+        <v>29</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>411</v>
+      </c>
+      <c r="L44">
+        <v>461</v>
+      </c>
+      <c r="P44">
+        <v>25</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="96">
+        <v>42915</v>
+      </c>
+      <c r="B45">
+        <v>168</v>
+      </c>
+      <c r="C45">
+        <v>57</v>
+      </c>
+      <c r="E45">
+        <v>37</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>403</v>
+      </c>
+      <c r="L45">
+        <v>454</v>
+      </c>
+      <c r="P45">
+        <v>20</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="96">
+        <v>42914</v>
+      </c>
+      <c r="B46">
+        <v>257</v>
+      </c>
+      <c r="C46">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <v>18</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>393</v>
+      </c>
+      <c r="L46">
+        <v>447</v>
+      </c>
+      <c r="P46">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Q46">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="96">
+        <v>42913</v>
+      </c>
+      <c r="B47">
+        <v>245</v>
+      </c>
+      <c r="C47">
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>24</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>378</v>
+      </c>
+      <c r="L47">
+        <v>440</v>
+      </c>
+      <c r="P47">
+        <v>11.1</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="96">
+        <v>42912</v>
+      </c>
+      <c r="B48">
+        <v>365</v>
+      </c>
+      <c r="C48">
+        <v>34</v>
+      </c>
+      <c r="E48">
+        <v>44</v>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>369</v>
+      </c>
+      <c r="L48">
+        <v>436</v>
+      </c>
+      <c r="P48">
+        <v>25</v>
+      </c>
+      <c r="Q48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="21">
+        <f>SUM(B42:B48)</f>
+        <v>1749</v>
+      </c>
+      <c r="C49" s="21">
+        <f>SUM(C42:C48)</f>
+        <v>379</v>
+      </c>
+      <c r="D49" s="17">
+        <f>(B49+C49)</f>
+        <v>2128</v>
+      </c>
+      <c r="E49" s="21">
+        <f>SUM(E42:E48)</f>
+        <v>300</v>
+      </c>
+      <c r="F49" s="21">
+        <f>SUM(F42:F48)</f>
+        <v>206</v>
+      </c>
+      <c r="G49" s="17">
+        <f>(E49+F49)</f>
+        <v>506</v>
+      </c>
+      <c r="H49" s="21">
+        <f>SUM(H42:H48)</f>
+        <v>71</v>
+      </c>
+      <c r="I49" s="21">
+        <f>SUM(I42:I48)</f>
+        <v>57</v>
+      </c>
+      <c r="J49" s="17">
+        <f>(H49+I49)</f>
+        <v>128</v>
+      </c>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="17">
+        <f>K42+L42</f>
+        <v>921</v>
+      </c>
+      <c r="N49" s="21">
+        <v>2.1701388888888892E-2</v>
+      </c>
+      <c r="O49" s="21">
+        <v>8.7465277777777781E-2</v>
+      </c>
+      <c r="P49" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="Q49" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="96">
+        <v>42911</v>
+      </c>
+      <c r="B50">
+        <v>229</v>
+      </c>
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="E50">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>28</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="K50">
+        <v>361</v>
+      </c>
+      <c r="L50">
+        <v>432</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="96">
+        <v>42910</v>
+      </c>
+      <c r="B51">
+        <v>204</v>
+      </c>
+      <c r="C51">
+        <v>69</v>
+      </c>
+      <c r="E51">
+        <v>32</v>
+      </c>
+      <c r="F51">
+        <v>36</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51">
+        <v>13</v>
+      </c>
+      <c r="K51">
+        <v>349</v>
+      </c>
+      <c r="L51">
+        <v>425</v>
+      </c>
+      <c r="P51">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q51">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="96">
+        <v>42909</v>
+      </c>
+      <c r="B52">
+        <v>157</v>
+      </c>
+      <c r="C52">
+        <v>28</v>
+      </c>
+      <c r="E52">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>22</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>337</v>
+      </c>
+      <c r="L52">
+        <v>412</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="96">
+        <v>42908</v>
+      </c>
+      <c r="B53">
+        <v>286</v>
+      </c>
+      <c r="C53">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>23</v>
+      </c>
+      <c r="H53">
+        <v>16</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>332</v>
+      </c>
+      <c r="L53">
+        <v>406</v>
+      </c>
+      <c r="P53">
+        <v>12.5</v>
+      </c>
+      <c r="Q53">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="96">
+        <v>42907</v>
+      </c>
+      <c r="B54">
+        <v>209</v>
+      </c>
+      <c r="C54">
+        <v>93</v>
+      </c>
+      <c r="E54">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>32</v>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <v>316</v>
+      </c>
+      <c r="L54">
+        <v>400</v>
+      </c>
+      <c r="P54">
+        <v>18.2</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="96">
+        <v>42906</v>
+      </c>
+      <c r="B55">
+        <v>194</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>33</v>
+      </c>
+      <c r="F55">
+        <v>22</v>
+      </c>
+      <c r="H55">
+        <v>11</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>305</v>
+      </c>
+      <c r="L55">
+        <v>392</v>
+      </c>
+      <c r="P55">
+        <v>27.3</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="96">
+        <v>42905</v>
+      </c>
+      <c r="B56">
+        <v>277</v>
+      </c>
+      <c r="C56">
+        <v>64</v>
+      </c>
+      <c r="E56">
+        <v>34</v>
+      </c>
+      <c r="F56">
+        <v>33</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>11</v>
+      </c>
+      <c r="K56">
+        <v>294</v>
+      </c>
+      <c r="L56">
+        <v>386</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="21">
+        <f>SUM(B50:B56)</f>
+        <v>1556</v>
+      </c>
+      <c r="C57" s="21">
+        <f>SUM(C50:C56)</f>
+        <v>395</v>
+      </c>
+      <c r="D57" s="17">
+        <f>(B57+C57)</f>
+        <v>1951</v>
+      </c>
+      <c r="E57" s="21">
+        <f>SUM(E50:E56)</f>
+        <v>270</v>
+      </c>
+      <c r="F57" s="21">
+        <f>SUM(F50:F56)</f>
+        <v>196</v>
+      </c>
+      <c r="G57" s="17">
+        <f>(E57+F57)</f>
+        <v>466</v>
+      </c>
+      <c r="H57" s="21">
+        <f>SUM(H50:H56)</f>
+        <v>71</v>
+      </c>
+      <c r="I57" s="21">
+        <f>SUM(I50:I56)</f>
+        <v>57</v>
+      </c>
+      <c r="J57" s="17">
+        <f>(H57+I57)</f>
+        <v>128</v>
+      </c>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="17">
+        <f>K50+L50</f>
+        <v>793</v>
+      </c>
+      <c r="N57" s="21">
+        <v>2.1701388888888892E-2</v>
+      </c>
+      <c r="O57" s="21">
+        <v>8.7465277777777781E-2</v>
+      </c>
+      <c r="P57" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="Q57" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="96">
+        <v>42904</v>
+      </c>
+      <c r="B58">
+        <v>207</v>
+      </c>
+      <c r="C58">
+        <v>61</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>41</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>290</v>
+      </c>
+      <c r="L58">
+        <v>375</v>
+      </c>
+      <c r="P58">
+        <v>20</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="96">
+        <v>42903</v>
+      </c>
+      <c r="B59">
+        <v>172</v>
+      </c>
+      <c r="C59">
+        <v>63</v>
+      </c>
+      <c r="E59">
+        <v>38</v>
+      </c>
+      <c r="F59">
+        <v>37</v>
+      </c>
+      <c r="H59">
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+      <c r="K59">
+        <v>280</v>
+      </c>
+      <c r="L59">
+        <v>355</v>
+      </c>
+      <c r="P59">
+        <v>5.6</v>
+      </c>
+      <c r="Q59">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="96">
+        <v>42902</v>
+      </c>
+      <c r="B60">
+        <v>275</v>
+      </c>
+      <c r="C60">
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>31</v>
+      </c>
+      <c r="F60">
+        <v>33</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <v>262</v>
+      </c>
+      <c r="L60">
+        <v>348</v>
+      </c>
+      <c r="P60">
+        <v>18.2</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="96">
+        <v>42901</v>
+      </c>
+      <c r="B61">
+        <v>296</v>
+      </c>
+      <c r="C61">
+        <v>38</v>
+      </c>
+      <c r="E61">
+        <v>19</v>
+      </c>
+      <c r="F61">
+        <v>18</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>251</v>
+      </c>
+      <c r="L61">
+        <v>339</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="96">
+        <v>42900</v>
+      </c>
+      <c r="B62">
+        <v>101</v>
+      </c>
+      <c r="C62">
+        <v>49</v>
+      </c>
+      <c r="E62">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>27</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>11</v>
+      </c>
+      <c r="K62">
+        <v>249</v>
+      </c>
+      <c r="L62">
+        <v>333</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="96">
+        <v>42899</v>
+      </c>
+      <c r="B63">
+        <v>120</v>
+      </c>
+      <c r="C63">
+        <v>54</v>
+      </c>
+      <c r="E63">
+        <v>29</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>11</v>
+      </c>
+      <c r="K63">
+        <v>245</v>
+      </c>
+      <c r="L63">
+        <v>322</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="96">
+        <v>42898</v>
+      </c>
+      <c r="B64">
+        <v>102</v>
+      </c>
+      <c r="C64">
+        <v>35</v>
+      </c>
+      <c r="E64">
+        <v>28</v>
+      </c>
+      <c r="F64">
+        <v>27</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>7</v>
+      </c>
+      <c r="K64">
+        <v>236</v>
+      </c>
+      <c r="L64">
+        <v>311</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="21">
+        <f>SUM(B58:B64)</f>
+        <v>1273</v>
+      </c>
+      <c r="C65" s="21">
+        <f>SUM(C58:C64)</f>
+        <v>348</v>
+      </c>
+      <c r="D65" s="17">
+        <f>(B65+C65)</f>
+        <v>1621</v>
+      </c>
+      <c r="E65" s="21">
+        <f>SUM(E58:E64)</f>
+        <v>204</v>
+      </c>
+      <c r="F65" s="21">
+        <f>SUM(F58:F64)</f>
+        <v>213</v>
+      </c>
+      <c r="G65" s="17">
+        <f>(E65+F65)</f>
+        <v>417</v>
+      </c>
+      <c r="H65" s="21">
+        <f>SUM(H58:H64)</f>
+        <v>61</v>
+      </c>
+      <c r="I65" s="21">
+        <f>SUM(I58:I64)</f>
+        <v>71</v>
+      </c>
+      <c r="J65" s="17">
+        <f>(H65+I65)</f>
+        <v>132</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="17">
+        <f>K58+L58</f>
+        <v>665</v>
+      </c>
+      <c r="N65" s="21">
+        <v>2.1701388888888892E-2</v>
+      </c>
+      <c r="O65" s="21">
+        <v>8.7465277777777781E-2</v>
+      </c>
+      <c r="P65" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="Q65" s="21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="96">
+        <v>42897</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>62</v>
+      </c>
+      <c r="E66">
+        <v>26</v>
+      </c>
+      <c r="F66">
+        <v>35</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>15</v>
+      </c>
+      <c r="K66">
+        <v>229</v>
+      </c>
+      <c r="L66">
+        <v>304</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="96">
+        <v>42896</v>
+      </c>
+      <c r="B67">
+        <v>206</v>
+      </c>
+      <c r="C67">
+        <v>76</v>
+      </c>
+      <c r="E67">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>43</v>
+      </c>
+      <c r="H67">
+        <v>9</v>
+      </c>
+      <c r="I67">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>224</v>
+      </c>
+      <c r="L67">
+        <v>289</v>
+      </c>
+      <c r="P67">
+        <v>22.2</v>
+      </c>
+      <c r="Q67">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="96">
+        <v>42895</v>
+      </c>
+      <c r="B68">
+        <v>103</v>
+      </c>
+      <c r="C68">
+        <v>33</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="K68">
+        <v>215</v>
+      </c>
+      <c r="L68">
+        <v>277</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="96">
+        <v>42894</v>
+      </c>
+      <c r="B69">
+        <v>156</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+      <c r="E69">
+        <v>22</v>
+      </c>
+      <c r="F69">
+        <v>22</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>9</v>
+      </c>
+      <c r="K69">
+        <v>212</v>
+      </c>
+      <c r="L69">
+        <v>270</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="96"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="96"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="96"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="96"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="96"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="96"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:Q3">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D9" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10912,12 +15193,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12488,13 +16769,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36:C36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14043,7 +18324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R39"/>
   <sheetViews>
@@ -15671,7 +19952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
@@ -17219,7 +21500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
@@ -18767,7 +23048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
@@ -20307,1654 +24588,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B19" sqref="B19:V22"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
-        <v>42942</v>
-      </c>
-      <c r="B2" s="2">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
-        <v>54</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2">
-        <v>37</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>3805</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1617</v>
-      </c>
-      <c r="M2" s="2">
-        <v>5422</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2.5462962962962961E-3</v>
-      </c>
-      <c r="O2" s="1">
-        <v>3.4027777777777784E-3</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>42941</v>
-      </c>
-      <c r="B3" s="2">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2">
-        <v>3798</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1580</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1">
-        <v>6.828703703703704E-3</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3.2291666666666666E-3</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>42940</v>
-      </c>
-      <c r="B4" s="2">
-        <v>196</v>
-      </c>
-      <c r="C4" s="2">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
-        <v>3792</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1576</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1">
-        <v>5.7523148148148143E-3</v>
-      </c>
-      <c r="O4" s="1">
-        <v>9.6527777777777775E-3</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>42939</v>
-      </c>
-      <c r="B5" s="2">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>3785</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1566</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="1">
-        <v>2.3032407407407407E-3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3.1712962962962958E-3</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>42938</v>
-      </c>
-      <c r="B6" s="2">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>3778</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1561</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="1">
-        <v>7.013888888888889E-3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>6.0069444444444441E-3</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>42937</v>
-      </c>
-      <c r="B7" s="2">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>3775</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1556</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="1">
-        <v>3.5532407407407405E-3</v>
-      </c>
-      <c r="O7" s="1">
-        <v>8.217592592592594E-3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>42936</v>
-      </c>
-      <c r="B8" s="2">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>3771</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1552</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1">
-        <v>6.6203703703703702E-3</v>
-      </c>
-      <c r="O8" s="1">
-        <v>7.0601851851851841E-3</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="21">
-        <f>SUM(B2:B8)</f>
-        <v>442</v>
-      </c>
-      <c r="C9" s="21">
-        <f>SUM(C2:C8)</f>
-        <v>388</v>
-      </c>
-      <c r="D9" s="17">
-        <v>830</v>
-      </c>
-      <c r="E9" s="21">
-        <f>SUM(E2:E8)</f>
-        <v>87</v>
-      </c>
-      <c r="F9" s="21">
-        <f>SUM(F2:F8)</f>
-        <v>194</v>
-      </c>
-      <c r="G9" s="17">
-        <v>281</v>
-      </c>
-      <c r="H9" s="21">
-        <f>SUM(H2:H8)</f>
-        <v>39</v>
-      </c>
-      <c r="I9" s="21">
-        <f>SUM(I2:I8)</f>
-        <v>75</v>
-      </c>
-      <c r="J9" s="17">
-        <v>114</v>
-      </c>
-      <c r="K9" s="21">
-        <f>SUM(K2:K8)</f>
-        <v>26504</v>
-      </c>
-      <c r="L9" s="21">
-        <f>SUM(L2:L8)</f>
-        <v>11008</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="21">
-        <v>4.9454365079365081E-3</v>
-      </c>
-      <c r="O9" s="21">
-        <v>5.82010582010582E-3</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>42935</v>
-      </c>
-      <c r="B10" s="2">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2">
-        <v>194</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
-        <v>56</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>3766</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1542</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1">
-        <v>4.2939814814814811E-3</v>
-      </c>
-      <c r="O10" s="1">
-        <v>3.7500000000000003E-3</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>42934</v>
-      </c>
-      <c r="B11" s="2">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2">
-        <v>134</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>43</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>3760</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1503</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1">
-        <v>4.0162037037037033E-3</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2.3726851851851851E-3</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>42933</v>
-      </c>
-      <c r="B12" s="2">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2">
-        <v>440</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2">
-        <v>87</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>74</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>3755</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1460</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1">
-        <v>4.0624999999999993E-3</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1.7476851851851852E-3</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>42932</v>
-      </c>
-      <c r="B13" s="2">
-        <v>65</v>
-      </c>
-      <c r="C13" s="2">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
-        <v>3750</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1386</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1">
-        <v>4.1319444444444442E-3</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2.1527777777777778E-3</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>42931</v>
-      </c>
-      <c r="B14" s="2">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2">
-        <v>111</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>7</v>
-      </c>
-      <c r="I14" s="2">
-        <v>47</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2">
-        <v>3743</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1376</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1">
-        <v>3.2060185185185191E-3</v>
-      </c>
-      <c r="O14" s="1">
-        <v>9.6990740740740735E-3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>42930</v>
-      </c>
-      <c r="B15" s="2">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2">
-        <v>81</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2">
-        <v>21</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
-        <v>3736</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1329</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1">
-        <v>2.4652777777777776E-3</v>
-      </c>
-      <c r="O15" s="1">
-        <v>4.9652777777777777E-3</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>42929</v>
-      </c>
-      <c r="B16" s="2">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2">
-        <v>112</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2">
-        <v>38</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>8</v>
-      </c>
-      <c r="I16" s="2">
-        <v>22</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2">
-        <v>3730</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1308</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="1">
-        <v>2.0949074074074073E-3</v>
-      </c>
-      <c r="O16" s="1">
-        <v>7.4537037037037028E-3</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="21">
-        <f>SUM(B10:B16)</f>
-        <v>305</v>
-      </c>
-      <c r="C17" s="21">
-        <f>SUM(C10:C16)</f>
-        <v>1104</v>
-      </c>
-      <c r="D17" s="17">
-        <v>1409</v>
-      </c>
-      <c r="E17" s="21">
-        <f>SUM(E10:E16)</f>
-        <v>95</v>
-      </c>
-      <c r="F17" s="21">
-        <f>SUM(F10:F16)</f>
-        <v>361</v>
-      </c>
-      <c r="G17" s="17">
-        <v>456</v>
-      </c>
-      <c r="H17" s="21">
-        <f>SUM(H10:H16)</f>
-        <v>44</v>
-      </c>
-      <c r="I17" s="21">
-        <f>SUM(I10:I16)</f>
-        <v>256</v>
-      </c>
-      <c r="J17" s="17">
-        <v>300</v>
-      </c>
-      <c r="K17" s="21">
-        <f>SUM(K10:K16)</f>
-        <v>26240</v>
-      </c>
-      <c r="L17" s="21">
-        <f>SUM(L10:L16)</f>
-        <v>9904</v>
-      </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="21">
-        <v>3.4672619047619044E-3</v>
-      </c>
-      <c r="O17" s="21">
-        <v>4.5916005291005294E-3</v>
-      </c>
-      <c r="P17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>42928</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2">
-        <v>263</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>52</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>39</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>3722</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1286</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1">
-        <v>2.0138888888888888E-3</v>
-      </c>
-      <c r="O18" s="1">
-        <v>4.5717592592592589E-3</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>42927</v>
-      </c>
-      <c r="B19" s="2">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2">
-        <v>66</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>4</v>
-      </c>
-      <c r="I19" s="2">
-        <v>41</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>3717</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1247</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="1">
-        <v>6.8171296296296287E-3</v>
-      </c>
-      <c r="O19" s="1">
-        <v>7.0486111111111105E-3</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>42926</v>
-      </c>
-      <c r="B20" s="2">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>4</v>
-      </c>
-      <c r="I20" s="2">
-        <v>7</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
-        <v>3713</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1206</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="1">
-        <v>2.3842592592592591E-3</v>
-      </c>
-      <c r="O20" s="1">
-        <v>3.2291666666666666E-3</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>42925</v>
-      </c>
-      <c r="B21" s="2">
-        <v>36</v>
-      </c>
-      <c r="C21" s="2">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2">
-        <v>26</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>3</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2">
-        <v>3709</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1199</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1">
-        <v>2.1527777777777778E-3</v>
-      </c>
-      <c r="O21" s="1">
-        <v>5.4050925925925924E-3</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>42924</v>
-      </c>
-      <c r="B22" s="2">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>7</v>
-      </c>
-      <c r="I22" s="2">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2">
-        <v>3706</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1197</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="1">
-        <v>1.2280092592592592E-2</v>
-      </c>
-      <c r="O22" s="1">
-        <v>3.7268518518518514E-3</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
-        <v>42923</v>
-      </c>
-      <c r="B23" s="2">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2">
-        <v>37</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2">
-        <v>25</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>4</v>
-      </c>
-      <c r="I23" s="2">
-        <v>14</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2">
-        <v>3699</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1187</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1">
-        <v>2.1874999999999998E-3</v>
-      </c>
-      <c r="O23" s="1">
-        <v>3.1018518518518522E-3</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>42922</v>
-      </c>
-      <c r="B24" s="2">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
-        <v>6</v>
-      </c>
-      <c r="I24" s="2">
-        <v>9</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2">
-        <v>3695</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1173</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="1">
-        <v>6.4930555555555549E-3</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1.4490740740740742E-2</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="21">
-        <f>SUM(B18:B24)</f>
-        <v>307</v>
-      </c>
-      <c r="C25" s="21">
-        <f>SUM(C18:C24)</f>
-        <v>502</v>
-      </c>
-      <c r="D25" s="17">
-        <v>809</v>
-      </c>
-      <c r="E25" s="21">
-        <f>SUM(E18:E24)</f>
-        <v>91</v>
-      </c>
-      <c r="F25" s="21">
-        <f>SUM(F18:F24)</f>
-        <v>218</v>
-      </c>
-      <c r="G25" s="17">
-        <v>309</v>
-      </c>
-      <c r="H25" s="21">
-        <f>SUM(H18:H24)</f>
-        <v>33</v>
-      </c>
-      <c r="I25" s="21">
-        <f>SUM(I18:I24)</f>
-        <v>122</v>
-      </c>
-      <c r="J25" s="17">
-        <v>155</v>
-      </c>
-      <c r="K25" s="21">
-        <f>SUM(K18:K24)</f>
-        <v>25961</v>
-      </c>
-      <c r="L25" s="21">
-        <f>SUM(L18:L24)</f>
-        <v>8495</v>
-      </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="21">
-        <v>4.9041005291005288E-3</v>
-      </c>
-      <c r="O25" s="21">
-        <v>5.9391534391534393E-3</v>
-      </c>
-      <c r="P25" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
-        <v>42921</v>
-      </c>
-      <c r="B26" s="2">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2">
-        <v>127</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2">
-        <v>58</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2">
-        <v>44</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2">
-        <v>3689</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1164</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="1">
-        <v>4.5138888888888893E-3</v>
-      </c>
-      <c r="O26" s="1">
-        <v>3.4606481481481485E-3</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
-        <v>42920</v>
-      </c>
-      <c r="B27" s="2">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2">
-        <v>58</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2">
-        <v>27</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <v>6</v>
-      </c>
-      <c r="I27" s="2">
-        <v>15</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2">
-        <v>3682</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1120</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="1">
-        <v>3.8888888888888883E-3</v>
-      </c>
-      <c r="O27" s="1">
-        <v>6.2499999999999995E-3</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>42919</v>
-      </c>
-      <c r="B28" s="2">
-        <v>42</v>
-      </c>
-      <c r="C28" s="2">
-        <v>86</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2">
-        <v>34</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2">
-        <v>7</v>
-      </c>
-      <c r="I28" s="2">
-        <v>19</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>3676</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1105</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="1">
-        <v>5.2199074074074066E-3</v>
-      </c>
-      <c r="O28" s="1">
-        <v>5.3240740740740748E-3</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
-        <v>42918</v>
-      </c>
-      <c r="B29" s="2">
-        <v>66</v>
-      </c>
-      <c r="C29" s="2">
-        <v>52</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>17</v>
-      </c>
-      <c r="F29" s="2">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2">
-        <v>8</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2">
-        <v>3669</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1086</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="1">
-        <v>4.7916666666666672E-3</v>
-      </c>
-      <c r="O29" s="1">
-        <v>3.2523148148148151E-3</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
-        <v>42917</v>
-      </c>
-      <c r="B30" s="2">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2">
-        <v>47</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>20</v>
-      </c>
-      <c r="F30" s="2">
-        <v>29</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2">
-        <v>9</v>
-      </c>
-      <c r="I30" s="2">
-        <v>9</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2">
-        <v>3659</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1078</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="1">
-        <v>2.6967592592592594E-3</v>
-      </c>
-      <c r="O30" s="1">
-        <v>4.31712962962963E-3</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
-        <v>42916</v>
-      </c>
-      <c r="B31" s="2">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2">
-        <v>32</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>7</v>
-      </c>
-      <c r="F31" s="2">
-        <v>26</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2">
-        <v>2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>8</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>3650</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1069</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="1">
-        <v>1.9074074074074073E-2</v>
-      </c>
-      <c r="O31" s="1">
-        <v>2.6041666666666665E-3</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
-        <v>42915</v>
-      </c>
-      <c r="B32" s="2">
-        <v>48</v>
-      </c>
-      <c r="C32" s="2">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>17</v>
-      </c>
-      <c r="F32" s="2">
-        <v>21</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
-        <v>8</v>
-      </c>
-      <c r="I32" s="2">
-        <v>13</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2">
-        <v>3648</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1061</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="1">
-        <v>4.1319444444444442E-3</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1.8518518518518517E-3</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="21">
-        <f>SUM(B26:B32)</f>
-        <v>301</v>
-      </c>
-      <c r="C33" s="21">
-        <f>SUM(C26:C32)</f>
-        <v>427</v>
-      </c>
-      <c r="D33" s="17">
-        <v>728</v>
-      </c>
-      <c r="E33" s="21">
-        <f>SUM(E26:E32)</f>
-        <v>102</v>
-      </c>
-      <c r="F33" s="21">
-        <f>SUM(F26:F32)</f>
-        <v>223</v>
-      </c>
-      <c r="G33" s="17">
-        <v>325</v>
-      </c>
-      <c r="H33" s="21">
-        <f>SUM(H26:H32)</f>
-        <v>49</v>
-      </c>
-      <c r="I33" s="21">
-        <f>SUM(I26:I32)</f>
-        <v>116</v>
-      </c>
-      <c r="J33" s="17">
-        <v>165</v>
-      </c>
-      <c r="K33" s="21">
-        <f>SUM(K26:K32)</f>
-        <v>25673</v>
-      </c>
-      <c r="L33" s="21">
-        <f>SUM(L26:L32)</f>
-        <v>7683</v>
-      </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="21">
-        <v>6.3310185185185188E-3</v>
-      </c>
-      <c r="O33" s="21">
-        <v>3.8657407407407412E-3</v>
-      </c>
-      <c r="P33" s="21">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="Q33" s="21">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
-        <v>42914</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43</v>
-      </c>
-      <c r="C34" s="2">
-        <v>39</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>14</v>
-      </c>
-      <c r="F34" s="2">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2">
-        <v>8</v>
-      </c>
-      <c r="I34" s="2">
-        <v>8</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2">
-        <v>3640</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1048</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="1">
-        <v>2.0254629629629629E-3</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1.877314814814815E-2</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="1">
-        <v>4.8148148148148152E-3</v>
-      </c>
-      <c r="O35" s="1">
-        <v>5.5324074074074069E-3</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H36" s="6">
-        <f>AVERAGE(H9,H17,H25,H33)/7</f>
-        <v>5.8928571428571432</v>
-      </c>
-      <c r="I36" s="6">
-        <f>AVERAGE(I9,I17,I25,I33)/7</f>
-        <v>20.321428571428573</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/运营/app数据-7.31.xlsx
+++ b/运营/app数据-7.31.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/go/运营/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="800" windowWidth="25600" windowHeight="14320" activeTab="1"/>
+    <workbookView xWindow="6000" yWindow="804" windowWidth="25596" windowHeight="14316" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总及分析" sheetId="14" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <sheet name="班得瑞的奇幻花园" sheetId="12" r:id="rId12"/>
     <sheet name="淘淘的童话之旅" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="67">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,7 +444,7 @@
     <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,10 +824,17 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,19 +843,67 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,65 +939,20 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -955,16 +960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -974,6 +969,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1272,94 +1270,94 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="84" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:27" s="69" customFormat="1" ht="25.8">
+      <c r="A1" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-    </row>
-    <row r="2" spans="1:27" s="86" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+    </row>
+    <row r="2" spans="1:27" s="71" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A2" s="70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="61" t="s">
+    <row r="3" spans="1:27" s="6" customFormat="1">
+      <c r="A3" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69" t="s">
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="66" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="72" t="s">
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="75" t="s">
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="77"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="79"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1">
+      <c r="A4" s="62"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" s="36" t="s">
         <v>19</v>
       </c>
@@ -1523,7 +1521,7 @@
         <v>28683</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" s="36" t="s">
         <v>21</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>15642</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
@@ -1691,7 +1689,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>35805</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
@@ -1859,7 +1857,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2109,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
@@ -2279,7 +2277,7 @@
         <v>11684</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2363,100 +2361,100 @@
         <v>19135</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16" s="29"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17" s="29"/>
     </row>
-    <row r="18" spans="1:27" s="88" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87" t="s">
+    <row r="18" spans="1:27" s="73" customFormat="1" ht="90" customHeight="1">
+      <c r="A18" s="72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="79" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:27" s="92" customFormat="1" ht="134.25" customHeight="1">
+      <c r="A19" s="91" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:27" s="66" customFormat="1">
+      <c r="A20" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-    </row>
-    <row r="21" spans="1:27" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="80" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="95"/>
+    </row>
+    <row r="21" spans="1:27" s="38" customFormat="1">
+      <c r="A21" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="52" t="s">
+      <c r="H21" s="64"/>
+      <c r="I21" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53" t="s">
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="52" t="s">
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="54" t="s">
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55" t="s">
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-    </row>
-    <row r="22" spans="1:27" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+    </row>
+    <row r="22" spans="1:27" s="38" customFormat="1">
+      <c r="A22" s="62"/>
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" s="47" customFormat="1">
       <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>28683</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" s="47" customFormat="1">
       <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>11684</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" s="47" customFormat="1">
       <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
@@ -2788,89 +2786,89 @@
         <v>770</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="79" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+    <row r="26" spans="1:27" s="92" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A26" s="91" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:27" s="66" customFormat="1">
+      <c r="A27" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-    </row>
-    <row r="28" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="61" t="s">
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="95"/>
+    </row>
+    <row r="28" spans="1:27" s="6" customFormat="1">
+      <c r="A28" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66" t="s">
+      <c r="H28" s="84"/>
+      <c r="I28" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69" t="s">
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="66" t="s">
+      <c r="M28" s="89"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="72" t="s">
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="75" t="s">
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="77"/>
-    </row>
-    <row r="29" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="79"/>
+    </row>
+    <row r="29" spans="1:27" s="6" customFormat="1">
+      <c r="A29" s="62"/>
       <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" s="28" customFormat="1">
       <c r="A30" s="18" t="s">
         <v>14</v>
       </c>
@@ -3034,7 +3032,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" s="28" customFormat="1">
       <c r="A31" s="18" t="s">
         <v>18</v>
       </c>
@@ -3118,7 +3116,7 @@
         <v>19135</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" s="28" customFormat="1">
       <c r="A32" s="18" t="s">
         <v>25</v>
       </c>
@@ -3202,63 +3200,63 @@
         <v>743</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="90" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="89" t="s">
+    <row r="33" spans="1:27" s="60" customFormat="1" ht="45" customHeight="1">
+      <c r="A33" s="59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:27" s="66" customFormat="1">
+      <c r="A34" s="66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="80" t="s">
+    <row r="35" spans="1:27" s="39" customFormat="1">
+      <c r="A35" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81" t="s">
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="81"/>
-      <c r="I35" s="52" t="s">
+      <c r="H35" s="64"/>
+      <c r="I35" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53" t="s">
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="52" t="s">
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="54" t="s">
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="55" t="s">
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-    </row>
-    <row r="36" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+    </row>
+    <row r="36" spans="1:27" s="39" customFormat="1">
+      <c r="A36" s="62"/>
       <c r="B36" s="41" t="s">
         <v>3</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="48" customFormat="1">
       <c r="A37" s="18" t="s">
         <v>19</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>28683</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="48" customFormat="1">
       <c r="A38" s="18" t="s">
         <v>23</v>
       </c>
@@ -3506,7 +3504,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="48" customFormat="1">
       <c r="A39" s="18" t="s">
         <v>24</v>
       </c>
@@ -3590,63 +3588,63 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="90" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="89" t="s">
+    <row r="40" spans="1:27" s="60" customFormat="1" ht="69" customHeight="1">
+      <c r="A40" s="59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
+    <row r="41" spans="1:27" s="66" customFormat="1">
+      <c r="A41" s="66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="80" t="s">
+    <row r="42" spans="1:27" s="39" customFormat="1">
+      <c r="A42" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="81"/>
-      <c r="I42" s="52" t="s">
+      <c r="H42" s="64"/>
+      <c r="I42" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="53" t="s">
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="52" t="s">
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="54" t="s">
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="55" t="s">
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-    </row>
-    <row r="43" spans="1:27" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="58"/>
+    </row>
+    <row r="43" spans="1:27" s="39" customFormat="1">
+      <c r="A43" s="62"/>
       <c r="B43" s="41" t="s">
         <v>3</v>
       </c>
@@ -3726,7 +3724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="47" customFormat="1">
       <c r="A44" s="18" t="s">
         <v>14</v>
       </c>
@@ -3810,7 +3808,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" s="47" customFormat="1">
       <c r="A45" s="18" t="s">
         <v>18</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>19135</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" s="47" customFormat="1">
       <c r="A46" s="18" t="s">
         <v>22</v>
       </c>
@@ -3978,12 +3976,12 @@
         <v>35805</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="90" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="91" t="s">
+    <row r="47" spans="1:27" s="60" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A47" s="61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -4005,7 +4003,7 @@
       <c r="S48" s="28"/>
       <c r="T48" s="28"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -4027,7 +4025,7 @@
       <c r="S49" s="28"/>
       <c r="T49" s="28"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4049,7 +4047,7 @@
       <c r="S50" s="28"/>
       <c r="T50" s="28"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4071,7 +4069,7 @@
       <c r="S51" s="28"/>
       <c r="T51" s="28"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4093,7 +4091,7 @@
       <c r="S52" s="28"/>
       <c r="T52" s="28"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -4115,7 +4113,7 @@
       <c r="S53" s="28"/>
       <c r="T53" s="28"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -4137,7 +4135,7 @@
       <c r="S54" s="28"/>
       <c r="T54" s="28"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -4159,7 +4157,7 @@
       <c r="S55" s="28"/>
       <c r="T55" s="28"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -4183,6 +4181,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:S3"/>
     <mergeCell ref="O42:S42"/>
     <mergeCell ref="T42:X42"/>
     <mergeCell ref="Y42:AA42"/>
@@ -4199,42 +4233,6 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4252,13 +4250,13 @@
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" customFormat="1" ht="48.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -4311,7 +4309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -4358,7 +4356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -4403,7 +4401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -4538,7 +4536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -4583,7 +4581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -4628,7 +4626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>48</v>
       </c>
@@ -4683,7 +4681,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -4728,7 +4726,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -4773,7 +4771,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -4818,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -4863,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -4908,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -4953,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -4998,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>47</v>
       </c>
@@ -5057,7 +5055,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -5102,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -5147,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -5192,7 +5190,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -5282,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -5327,7 +5325,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -5372,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -5431,7 +5429,7 @@
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -5476,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -5521,7 +5519,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -5566,7 +5564,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -5611,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -5656,7 +5654,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -5701,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -5746,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>47</v>
       </c>
@@ -5805,7 +5803,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -5850,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="23"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5873,7 +5871,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="H36" s="6">
         <f>AVERAGE(H9,H17,H25,H33)/7</f>
         <v>5.8928571428571432</v>
@@ -5883,7 +5881,7 @@
         <v>20.321428571428573</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
@@ -5900,13 +5898,13 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" customFormat="1" ht="48.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
@@ -5959,7 +5957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -6004,7 +6002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -6049,7 +6047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -6094,7 +6092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -6139,7 +6137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -6184,7 +6182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -6229,7 +6227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -6274,7 +6272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -6301,7 +6299,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -6391,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -6436,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -6481,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -6526,7 +6524,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -6571,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -6616,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="19" t="s">
         <v>6</v>
       </c>
@@ -6647,7 +6645,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -6692,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -6737,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -6782,7 +6780,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -6827,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -6872,7 +6870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -6917,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -6962,7 +6960,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="19" t="s">
         <v>6</v>
       </c>
@@ -6993,7 +6991,7 @@
         <v>4.4299999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -7038,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -7083,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -7173,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -7218,7 +7216,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -7263,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -7308,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="19" t="s">
         <v>6</v>
       </c>
@@ -7339,7 +7337,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -7384,7 +7382,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="19"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7407,7 +7405,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="H36" s="6">
         <f>AVERAGE(H2:H34)</f>
         <v>10</v>
@@ -7431,13 +7429,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="52.5" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -7490,7 +7488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -7538,7 +7536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -7583,7 +7581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -7628,7 +7626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -7673,7 +7671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -7718,7 +7716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -7763,7 +7761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -7808,7 +7806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
@@ -7839,7 +7837,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -7884,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -7929,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -7974,7 +7972,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -8019,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -8064,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -8109,7 +8107,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -8154,7 +8152,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -8189,7 +8187,7 @@
         <v>6.1699999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -8234,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -8279,7 +8277,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -8324,7 +8322,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -8369,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -8414,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -8459,7 +8457,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -8504,7 +8502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="23" t="s">
         <v>48</v>
       </c>
@@ -8539,7 +8537,7 @@
         <v>0.1079</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -8584,7 +8582,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -8629,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -8674,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -8719,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -8764,7 +8762,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -8854,7 +8852,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
@@ -8889,7 +8887,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="23"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8957,7 +8955,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
@@ -8974,13 +8972,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="52.5" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -9045,7 +9043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -9104,7 +9102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -9161,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -9218,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -9275,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -9332,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -9389,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -9446,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
@@ -9489,7 +9487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -9546,7 +9544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -9603,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -9660,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -9717,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -9774,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -9831,7 +9829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -9888,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -9935,7 +9933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -9992,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -10049,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -10106,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -10163,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -10220,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -10277,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -10334,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="23" t="s">
         <v>48</v>
       </c>
@@ -10381,7 +10379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -10438,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -10495,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -10552,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -10609,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -10666,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -10723,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -10780,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
@@ -10827,7 +10825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -10884,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="23"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -10919,33 +10917,34 @@
         <v>0.72413793103448276</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="97"/>
+    <col min="1" max="1" width="10.77734375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:17" ht="43.2">
+      <c r="A1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -10994,37 +10993,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="96">
+    <row r="2" spans="1:17">
+      <c r="A2" s="54">
         <v>42953</v>
       </c>
       <c r="B2">
-        <v>633</v>
+        <v>1409</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>555</v>
       </c>
       <c r="E2">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="F2">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="I2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="K2">
-        <v>1808</v>
+        <v>1857</v>
       </c>
       <c r="L2">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="96">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="54">
         <v>42952</v>
       </c>
       <c r="B3">
@@ -11052,8 +11051,8 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="96">
+    <row r="4" spans="1:17">
+      <c r="A4" s="54">
         <v>42951</v>
       </c>
       <c r="B4">
@@ -11081,8 +11080,8 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="96">
+    <row r="5" spans="1:17">
+      <c r="A5" s="54">
         <v>42950</v>
       </c>
       <c r="B5">
@@ -11110,8 +11109,8 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="96">
+    <row r="6" spans="1:17">
+      <c r="A6" s="54">
         <v>42949</v>
       </c>
       <c r="B6">
@@ -11139,8 +11138,8 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="96">
+    <row r="7" spans="1:17">
+      <c r="A7" s="54">
         <v>42948</v>
       </c>
       <c r="B7">
@@ -11168,8 +11167,8 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="96">
+    <row r="8" spans="1:17">
+      <c r="A8" s="54">
         <v>42947</v>
       </c>
       <c r="B8">
@@ -11197,51 +11196,51 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="21" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="21">
         <f>SUM(B2:B8)</f>
-        <v>5787</v>
+        <v>6563</v>
       </c>
       <c r="C9" s="21">
         <f>SUM(C2:C8)</f>
-        <v>2197</v>
+        <v>2558</v>
       </c>
       <c r="D9" s="17">
         <f>(B9+C9)</f>
-        <v>7984</v>
+        <v>9121</v>
       </c>
       <c r="E9" s="21">
         <f>SUM(E2:E8)</f>
-        <v>1514</v>
+        <v>1653</v>
       </c>
       <c r="F9" s="21">
         <f>SUM(F2:F8)</f>
-        <v>1201</v>
+        <v>1316</v>
       </c>
       <c r="G9" s="17">
         <f>(E9+F9)</f>
-        <v>2715</v>
+        <v>2969</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H2:H8)</f>
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="I9" s="21">
         <f>SUM(I2:I8)</f>
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="J9" s="17">
         <f>(H9+I9)</f>
-        <v>785</v>
+        <v>892</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="17">
         <f>K2+L2</f>
-        <v>4057</v>
+        <v>4161</v>
       </c>
       <c r="N9" s="21">
         <v>2.1701388888888892E-2</v>
@@ -11256,8 +11255,8 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="96">
+    <row r="10" spans="1:17">
+      <c r="A10" s="54">
         <v>42946</v>
       </c>
       <c r="B10">
@@ -11285,8 +11284,8 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="96">
+    <row r="11" spans="1:17">
+      <c r="A11" s="54">
         <v>42945</v>
       </c>
       <c r="B11">
@@ -11320,8 +11319,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="96">
+    <row r="12" spans="1:17">
+      <c r="A12" s="54">
         <v>42944</v>
       </c>
       <c r="B12">
@@ -11355,8 +11354,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="96">
+    <row r="13" spans="1:17">
+      <c r="A13" s="54">
         <v>42943</v>
       </c>
       <c r="B13">
@@ -11390,8 +11389,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="96">
+    <row r="14" spans="1:17">
+      <c r="A14" s="54">
         <v>42942</v>
       </c>
       <c r="B14">
@@ -11425,8 +11424,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="96">
+    <row r="15" spans="1:17">
+      <c r="A15" s="54">
         <v>42941</v>
       </c>
       <c r="B15">
@@ -11460,8 +11459,8 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="96">
+    <row r="16" spans="1:17">
+      <c r="A16" s="54">
         <v>42940</v>
       </c>
       <c r="B16">
@@ -11495,7 +11494,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="21" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -11554,8 +11553,8 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="96">
+    <row r="18" spans="1:17">
+      <c r="A18" s="54">
         <v>42939</v>
       </c>
       <c r="B18">
@@ -11589,8 +11588,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="96">
+    <row r="19" spans="1:17">
+      <c r="A19" s="54">
         <v>42938</v>
       </c>
       <c r="B19">
@@ -11624,8 +11623,8 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="96">
+    <row r="20" spans="1:17">
+      <c r="A20" s="54">
         <v>42937</v>
       </c>
       <c r="B20">
@@ -11659,8 +11658,8 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="96">
+    <row r="21" spans="1:17">
+      <c r="A21" s="54">
         <v>42936</v>
       </c>
       <c r="B21">
@@ -11694,8 +11693,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="96">
+    <row r="22" spans="1:17">
+      <c r="A22" s="54">
         <v>42935</v>
       </c>
       <c r="B22">
@@ -11729,8 +11728,8 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="96">
+    <row r="23" spans="1:17">
+      <c r="A23" s="54">
         <v>42934</v>
       </c>
       <c r="B23">
@@ -11764,8 +11763,8 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="96">
+    <row r="24" spans="1:17">
+      <c r="A24" s="54">
         <v>42933</v>
       </c>
       <c r="B24">
@@ -11799,7 +11798,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="21" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>49</v>
       </c>
@@ -11858,8 +11857,8 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="96">
+    <row r="26" spans="1:17">
+      <c r="A26" s="54">
         <v>42932</v>
       </c>
       <c r="B26">
@@ -11893,8 +11892,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="96">
+    <row r="27" spans="1:17">
+      <c r="A27" s="54">
         <v>42931</v>
       </c>
       <c r="B27">
@@ -11928,8 +11927,8 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="96">
+    <row r="28" spans="1:17">
+      <c r="A28" s="54">
         <v>42930</v>
       </c>
       <c r="B28">
@@ -11963,8 +11962,8 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="96">
+    <row r="29" spans="1:17">
+      <c r="A29" s="54">
         <v>42929</v>
       </c>
       <c r="B29">
@@ -11998,8 +11997,8 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="96">
+    <row r="30" spans="1:17">
+      <c r="A30" s="54">
         <v>42928</v>
       </c>
       <c r="B30">
@@ -12033,8 +12032,8 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="96">
+    <row r="31" spans="1:17">
+      <c r="A31" s="54">
         <v>42927</v>
       </c>
       <c r="B31">
@@ -12068,8 +12067,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="96">
+    <row r="32" spans="1:17">
+      <c r="A32" s="54">
         <v>42926</v>
       </c>
       <c r="B32">
@@ -12103,9 +12102,9 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="21" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="21">
         <f>SUM(B26:B32)</f>
@@ -12162,1379 +12161,20 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="96">
-        <v>42925</v>
-      </c>
-      <c r="B34">
-        <v>779</v>
-      </c>
-      <c r="C34">
-        <v>328</v>
-      </c>
-      <c r="E34">
-        <v>129</v>
-      </c>
-      <c r="F34">
-        <v>86</v>
-      </c>
-      <c r="H34">
-        <v>53</v>
-      </c>
-      <c r="I34">
-        <v>34</v>
-      </c>
-      <c r="K34">
-        <v>626</v>
-      </c>
-      <c r="L34">
-        <v>648</v>
-      </c>
-      <c r="P34">
-        <v>20.8</v>
-      </c>
-      <c r="Q34">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="96">
-        <v>42924</v>
-      </c>
-      <c r="B35">
-        <v>751</v>
-      </c>
-      <c r="C35">
-        <v>310</v>
-      </c>
-      <c r="E35">
-        <v>101</v>
-      </c>
-      <c r="F35">
-        <v>90</v>
-      </c>
-      <c r="H35">
-        <v>30</v>
-      </c>
-      <c r="I35">
-        <v>27</v>
-      </c>
-      <c r="K35">
-        <v>573</v>
-      </c>
-      <c r="L35">
-        <v>614</v>
-      </c>
-      <c r="P35">
-        <v>16.7</v>
-      </c>
-      <c r="Q35">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="96">
-        <v>42923</v>
-      </c>
-      <c r="B36">
-        <v>451</v>
-      </c>
-      <c r="C36">
-        <v>116</v>
-      </c>
-      <c r="E36">
-        <v>79</v>
-      </c>
-      <c r="F36">
-        <v>58</v>
-      </c>
-      <c r="H36">
-        <v>25</v>
-      </c>
-      <c r="I36">
-        <v>26</v>
-      </c>
-      <c r="K36">
-        <v>543</v>
-      </c>
-      <c r="L36">
-        <v>587</v>
-      </c>
-      <c r="P36">
-        <v>8</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="96">
-        <v>42922</v>
-      </c>
-      <c r="B37">
-        <v>301</v>
-      </c>
-      <c r="C37">
-        <v>106</v>
-      </c>
-      <c r="E37">
-        <v>69</v>
-      </c>
-      <c r="F37">
-        <v>62</v>
-      </c>
-      <c r="H37">
-        <v>26</v>
-      </c>
-      <c r="I37">
-        <v>32</v>
-      </c>
-      <c r="K37">
-        <v>518</v>
-      </c>
-      <c r="L37">
-        <v>561</v>
-      </c>
-      <c r="P37">
-        <v>11.5</v>
-      </c>
-      <c r="Q37">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="96">
-        <v>42921</v>
-      </c>
-      <c r="B38">
-        <v>349</v>
-      </c>
-      <c r="C38">
-        <v>176</v>
-      </c>
-      <c r="E38">
-        <v>57</v>
-      </c>
-      <c r="F38">
-        <v>61</v>
-      </c>
-      <c r="H38">
-        <v>14</v>
-      </c>
-      <c r="I38">
-        <v>18</v>
-      </c>
-      <c r="K38">
-        <v>492</v>
-      </c>
-      <c r="L38">
-        <v>529</v>
-      </c>
-      <c r="P38">
-        <v>14.3</v>
-      </c>
-      <c r="Q38">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="96">
-        <v>42920</v>
-      </c>
-      <c r="B39">
-        <v>517</v>
-      </c>
-      <c r="C39">
-        <v>48</v>
-      </c>
-      <c r="E39">
-        <v>67</v>
-      </c>
-      <c r="F39">
-        <v>36</v>
-      </c>
-      <c r="H39">
-        <v>27</v>
-      </c>
-      <c r="I39">
-        <v>15</v>
-      </c>
-      <c r="K39">
-        <v>478</v>
-      </c>
-      <c r="L39">
-        <v>511</v>
-      </c>
-      <c r="P39">
-        <v>3.7</v>
-      </c>
-      <c r="Q39">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="96">
-        <v>42919</v>
-      </c>
-      <c r="B40">
-        <v>511</v>
-      </c>
-      <c r="C40">
-        <v>81</v>
-      </c>
-      <c r="E40">
-        <v>56</v>
-      </c>
-      <c r="F40">
-        <v>36</v>
-      </c>
-      <c r="H40">
-        <v>19</v>
-      </c>
-      <c r="I40">
-        <v>7</v>
-      </c>
-      <c r="K40">
-        <v>451</v>
-      </c>
-      <c r="L40">
-        <v>496</v>
-      </c>
-      <c r="P40">
-        <v>5.3</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="21">
-        <f>SUM(B34:B40)</f>
-        <v>3659</v>
-      </c>
-      <c r="C41" s="21">
-        <f>SUM(C34:C40)</f>
-        <v>1165</v>
-      </c>
-      <c r="D41" s="17">
-        <f>(B41+C41)</f>
-        <v>4824</v>
-      </c>
-      <c r="E41" s="21">
-        <f>SUM(E34:E40)</f>
-        <v>558</v>
-      </c>
-      <c r="F41" s="21">
-        <f>SUM(F34:F40)</f>
-        <v>429</v>
-      </c>
-      <c r="G41" s="17">
-        <f>(E41+F41)</f>
-        <v>987</v>
-      </c>
-      <c r="H41" s="21">
-        <f>SUM(H34:H40)</f>
-        <v>194</v>
-      </c>
-      <c r="I41" s="21">
-        <f>SUM(I34:I40)</f>
-        <v>159</v>
-      </c>
-      <c r="J41" s="17">
-        <f>(H41+I41)</f>
-        <v>353</v>
-      </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="17">
-        <f>K34+L34</f>
-        <v>1274</v>
-      </c>
-      <c r="N41" s="21">
-        <v>2.1701388888888892E-2</v>
-      </c>
-      <c r="O41" s="21">
-        <v>8.7465277777777781E-2</v>
-      </c>
-      <c r="P41" s="21">
-        <v>0.1171</v>
-      </c>
-      <c r="Q41" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="96">
-        <v>42918</v>
-      </c>
-      <c r="B42">
-        <v>294</v>
-      </c>
-      <c r="C42">
-        <v>78</v>
-      </c>
-      <c r="E42">
-        <v>45</v>
-      </c>
-      <c r="F42">
-        <v>40</v>
-      </c>
-      <c r="H42">
-        <v>7</v>
-      </c>
-      <c r="I42">
-        <v>13</v>
-      </c>
-      <c r="K42">
-        <v>432</v>
-      </c>
-      <c r="L42">
-        <v>489</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="96">
-        <v>42917</v>
-      </c>
-      <c r="B43">
-        <v>250</v>
-      </c>
-      <c r="C43">
-        <v>91</v>
-      </c>
-      <c r="E43">
-        <v>47</v>
-      </c>
-      <c r="F43">
-        <v>47</v>
-      </c>
-      <c r="H43">
-        <v>14</v>
-      </c>
-      <c r="I43">
-        <v>15</v>
-      </c>
-      <c r="K43">
-        <v>425</v>
-      </c>
-      <c r="L43">
-        <v>476</v>
-      </c>
-      <c r="P43">
-        <v>21.4</v>
-      </c>
-      <c r="Q43">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="96">
-        <v>42916</v>
-      </c>
-      <c r="B44">
-        <v>170</v>
-      </c>
-      <c r="C44">
-        <v>51</v>
-      </c>
-      <c r="E44">
-        <v>32</v>
-      </c>
-      <c r="F44">
-        <v>29</v>
-      </c>
-      <c r="H44">
-        <v>8</v>
-      </c>
-      <c r="I44">
-        <v>7</v>
-      </c>
-      <c r="K44">
-        <v>411</v>
-      </c>
-      <c r="L44">
-        <v>461</v>
-      </c>
-      <c r="P44">
-        <v>25</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="96">
-        <v>42915</v>
-      </c>
-      <c r="B45">
-        <v>168</v>
-      </c>
-      <c r="C45">
-        <v>57</v>
-      </c>
-      <c r="E45">
-        <v>37</v>
-      </c>
-      <c r="F45">
-        <v>30</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>7</v>
-      </c>
-      <c r="K45">
-        <v>403</v>
-      </c>
-      <c r="L45">
-        <v>454</v>
-      </c>
-      <c r="P45">
-        <v>20</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="96">
-        <v>42914</v>
-      </c>
-      <c r="B46">
-        <v>257</v>
-      </c>
-      <c r="C46">
-        <v>37</v>
-      </c>
-      <c r="E46">
-        <v>50</v>
-      </c>
-      <c r="F46">
-        <v>18</v>
-      </c>
-      <c r="H46">
-        <v>15</v>
-      </c>
-      <c r="I46">
-        <v>7</v>
-      </c>
-      <c r="K46">
-        <v>393</v>
-      </c>
-      <c r="L46">
-        <v>447</v>
-      </c>
-      <c r="P46">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="Q46">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="96">
-        <v>42913</v>
-      </c>
-      <c r="B47">
-        <v>245</v>
-      </c>
-      <c r="C47">
-        <v>31</v>
-      </c>
-      <c r="E47">
-        <v>45</v>
-      </c>
-      <c r="F47">
-        <v>24</v>
-      </c>
-      <c r="H47">
-        <v>9</v>
-      </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
-      <c r="K47">
-        <v>378</v>
-      </c>
-      <c r="L47">
-        <v>440</v>
-      </c>
-      <c r="P47">
-        <v>11.1</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="96">
-        <v>42912</v>
-      </c>
-      <c r="B48">
-        <v>365</v>
-      </c>
-      <c r="C48">
-        <v>34</v>
-      </c>
-      <c r="E48">
-        <v>44</v>
-      </c>
-      <c r="F48">
-        <v>18</v>
-      </c>
-      <c r="H48">
-        <v>8</v>
-      </c>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="K48">
-        <v>369</v>
-      </c>
-      <c r="L48">
-        <v>436</v>
-      </c>
-      <c r="P48">
-        <v>25</v>
-      </c>
-      <c r="Q48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="21">
-        <f>SUM(B42:B48)</f>
-        <v>1749</v>
-      </c>
-      <c r="C49" s="21">
-        <f>SUM(C42:C48)</f>
-        <v>379</v>
-      </c>
-      <c r="D49" s="17">
-        <f>(B49+C49)</f>
-        <v>2128</v>
-      </c>
-      <c r="E49" s="21">
-        <f>SUM(E42:E48)</f>
-        <v>300</v>
-      </c>
-      <c r="F49" s="21">
-        <f>SUM(F42:F48)</f>
-        <v>206</v>
-      </c>
-      <c r="G49" s="17">
-        <f>(E49+F49)</f>
-        <v>506</v>
-      </c>
-      <c r="H49" s="21">
-        <f>SUM(H42:H48)</f>
-        <v>71</v>
-      </c>
-      <c r="I49" s="21">
-        <f>SUM(I42:I48)</f>
-        <v>57</v>
-      </c>
-      <c r="J49" s="17">
-        <f>(H49+I49)</f>
-        <v>128</v>
-      </c>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="17">
-        <f>K42+L42</f>
-        <v>921</v>
-      </c>
-      <c r="N49" s="21">
-        <v>2.1701388888888892E-2</v>
-      </c>
-      <c r="O49" s="21">
-        <v>8.7465277777777781E-2</v>
-      </c>
-      <c r="P49" s="21">
-        <v>0.1171</v>
-      </c>
-      <c r="Q49" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="96">
-        <v>42911</v>
-      </c>
-      <c r="B50">
-        <v>229</v>
-      </c>
-      <c r="C50">
-        <v>46</v>
-      </c>
-      <c r="E50">
-        <v>45</v>
-      </c>
-      <c r="F50">
-        <v>28</v>
-      </c>
-      <c r="H50">
-        <v>12</v>
-      </c>
-      <c r="I50">
-        <v>7</v>
-      </c>
-      <c r="K50">
-        <v>361</v>
-      </c>
-      <c r="L50">
-        <v>432</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="96">
-        <v>42910</v>
-      </c>
-      <c r="B51">
-        <v>204</v>
-      </c>
-      <c r="C51">
-        <v>69</v>
-      </c>
-      <c r="E51">
-        <v>32</v>
-      </c>
-      <c r="F51">
-        <v>36</v>
-      </c>
-      <c r="H51">
-        <v>12</v>
-      </c>
-      <c r="I51">
-        <v>13</v>
-      </c>
-      <c r="K51">
-        <v>349</v>
-      </c>
-      <c r="L51">
-        <v>425</v>
-      </c>
-      <c r="P51">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Q51">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="96">
-        <v>42909</v>
-      </c>
-      <c r="B52">
-        <v>157</v>
-      </c>
-      <c r="C52">
-        <v>28</v>
-      </c>
-      <c r="E52">
-        <v>39</v>
-      </c>
-      <c r="F52">
-        <v>22</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="I52">
-        <v>6</v>
-      </c>
-      <c r="K52">
-        <v>337</v>
-      </c>
-      <c r="L52">
-        <v>412</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="96">
-        <v>42908</v>
-      </c>
-      <c r="B53">
-        <v>286</v>
-      </c>
-      <c r="C53">
-        <v>39</v>
-      </c>
-      <c r="E53">
-        <v>47</v>
-      </c>
-      <c r="F53">
-        <v>23</v>
-      </c>
-      <c r="H53">
-        <v>16</v>
-      </c>
-      <c r="I53">
-        <v>6</v>
-      </c>
-      <c r="K53">
-        <v>332</v>
-      </c>
-      <c r="L53">
-        <v>406</v>
-      </c>
-      <c r="P53">
-        <v>12.5</v>
-      </c>
-      <c r="Q53">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="96">
-        <v>42907</v>
-      </c>
-      <c r="B54">
-        <v>209</v>
-      </c>
-      <c r="C54">
-        <v>93</v>
-      </c>
-      <c r="E54">
-        <v>40</v>
-      </c>
-      <c r="F54">
-        <v>32</v>
-      </c>
-      <c r="H54">
-        <v>11</v>
-      </c>
-      <c r="I54">
-        <v>8</v>
-      </c>
-      <c r="K54">
-        <v>316</v>
-      </c>
-      <c r="L54">
-        <v>400</v>
-      </c>
-      <c r="P54">
-        <v>18.2</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="96">
-        <v>42906</v>
-      </c>
-      <c r="B55">
-        <v>194</v>
-      </c>
-      <c r="C55">
-        <v>56</v>
-      </c>
-      <c r="E55">
-        <v>33</v>
-      </c>
-      <c r="F55">
-        <v>22</v>
-      </c>
-      <c r="H55">
-        <v>11</v>
-      </c>
-      <c r="I55">
-        <v>6</v>
-      </c>
-      <c r="K55">
-        <v>305</v>
-      </c>
-      <c r="L55">
-        <v>392</v>
-      </c>
-      <c r="P55">
-        <v>27.3</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="96">
-        <v>42905</v>
-      </c>
-      <c r="B56">
-        <v>277</v>
-      </c>
-      <c r="C56">
-        <v>64</v>
-      </c>
-      <c r="E56">
-        <v>34</v>
-      </c>
-      <c r="F56">
-        <v>33</v>
-      </c>
-      <c r="H56">
-        <v>4</v>
-      </c>
-      <c r="I56">
-        <v>11</v>
-      </c>
-      <c r="K56">
-        <v>294</v>
-      </c>
-      <c r="L56">
-        <v>386</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="21">
-        <f>SUM(B50:B56)</f>
-        <v>1556</v>
-      </c>
-      <c r="C57" s="21">
-        <f>SUM(C50:C56)</f>
-        <v>395</v>
-      </c>
-      <c r="D57" s="17">
-        <f>(B57+C57)</f>
-        <v>1951</v>
-      </c>
-      <c r="E57" s="21">
-        <f>SUM(E50:E56)</f>
-        <v>270</v>
-      </c>
-      <c r="F57" s="21">
-        <f>SUM(F50:F56)</f>
-        <v>196</v>
-      </c>
-      <c r="G57" s="17">
-        <f>(E57+F57)</f>
-        <v>466</v>
-      </c>
-      <c r="H57" s="21">
-        <f>SUM(H50:H56)</f>
-        <v>71</v>
-      </c>
-      <c r="I57" s="21">
-        <f>SUM(I50:I56)</f>
-        <v>57</v>
-      </c>
-      <c r="J57" s="17">
-        <f>(H57+I57)</f>
-        <v>128</v>
-      </c>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="17">
-        <f>K50+L50</f>
-        <v>793</v>
-      </c>
-      <c r="N57" s="21">
-        <v>2.1701388888888892E-2</v>
-      </c>
-      <c r="O57" s="21">
-        <v>8.7465277777777781E-2</v>
-      </c>
-      <c r="P57" s="21">
-        <v>0.1171</v>
-      </c>
-      <c r="Q57" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="96">
-        <v>42904</v>
-      </c>
-      <c r="B58">
-        <v>207</v>
-      </c>
-      <c r="C58">
-        <v>61</v>
-      </c>
-      <c r="E58">
-        <v>42</v>
-      </c>
-      <c r="F58">
-        <v>41</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58">
-        <v>20</v>
-      </c>
-      <c r="K58">
-        <v>290</v>
-      </c>
-      <c r="L58">
-        <v>375</v>
-      </c>
-      <c r="P58">
-        <v>20</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="96">
-        <v>42903</v>
-      </c>
-      <c r="B59">
-        <v>172</v>
-      </c>
-      <c r="C59">
-        <v>63</v>
-      </c>
-      <c r="E59">
-        <v>38</v>
-      </c>
-      <c r="F59">
-        <v>37</v>
-      </c>
-      <c r="H59">
-        <v>18</v>
-      </c>
-      <c r="I59">
-        <v>7</v>
-      </c>
-      <c r="K59">
-        <v>280</v>
-      </c>
-      <c r="L59">
-        <v>355</v>
-      </c>
-      <c r="P59">
-        <v>5.6</v>
-      </c>
-      <c r="Q59">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="96">
-        <v>42902</v>
-      </c>
-      <c r="B60">
-        <v>275</v>
-      </c>
-      <c r="C60">
-        <v>48</v>
-      </c>
-      <c r="E60">
-        <v>31</v>
-      </c>
-      <c r="F60">
-        <v>33</v>
-      </c>
-      <c r="H60">
-        <v>11</v>
-      </c>
-      <c r="I60">
-        <v>9</v>
-      </c>
-      <c r="K60">
-        <v>262</v>
-      </c>
-      <c r="L60">
-        <v>348</v>
-      </c>
-      <c r="P60">
-        <v>18.2</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="96">
-        <v>42901</v>
-      </c>
-      <c r="B61">
-        <v>296</v>
-      </c>
-      <c r="C61">
-        <v>38</v>
-      </c>
-      <c r="E61">
-        <v>19</v>
-      </c>
-      <c r="F61">
-        <v>18</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <v>6</v>
-      </c>
-      <c r="K61">
-        <v>251</v>
-      </c>
-      <c r="L61">
-        <v>339</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="96">
-        <v>42900</v>
-      </c>
-      <c r="B62">
-        <v>101</v>
-      </c>
-      <c r="C62">
-        <v>49</v>
-      </c>
-      <c r="E62">
-        <v>17</v>
-      </c>
-      <c r="F62">
-        <v>27</v>
-      </c>
-      <c r="H62">
-        <v>4</v>
-      </c>
-      <c r="I62">
-        <v>11</v>
-      </c>
-      <c r="K62">
-        <v>249</v>
-      </c>
-      <c r="L62">
-        <v>333</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="96">
-        <v>42899</v>
-      </c>
-      <c r="B63">
-        <v>120</v>
-      </c>
-      <c r="C63">
-        <v>54</v>
-      </c>
-      <c r="E63">
-        <v>29</v>
-      </c>
-      <c r="F63">
-        <v>30</v>
-      </c>
-      <c r="H63">
-        <v>9</v>
-      </c>
-      <c r="I63">
-        <v>11</v>
-      </c>
-      <c r="K63">
-        <v>245</v>
-      </c>
-      <c r="L63">
-        <v>322</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="96">
-        <v>42898</v>
-      </c>
-      <c r="B64">
-        <v>102</v>
-      </c>
-      <c r="C64">
-        <v>35</v>
-      </c>
-      <c r="E64">
-        <v>28</v>
-      </c>
-      <c r="F64">
-        <v>27</v>
-      </c>
-      <c r="H64">
-        <v>7</v>
-      </c>
-      <c r="I64">
-        <v>7</v>
-      </c>
-      <c r="K64">
-        <v>236</v>
-      </c>
-      <c r="L64">
-        <v>311</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="21">
-        <f>SUM(B58:B64)</f>
-        <v>1273</v>
-      </c>
-      <c r="C65" s="21">
-        <f>SUM(C58:C64)</f>
-        <v>348</v>
-      </c>
-      <c r="D65" s="17">
-        <f>(B65+C65)</f>
-        <v>1621</v>
-      </c>
-      <c r="E65" s="21">
-        <f>SUM(E58:E64)</f>
-        <v>204</v>
-      </c>
-      <c r="F65" s="21">
-        <f>SUM(F58:F64)</f>
-        <v>213</v>
-      </c>
-      <c r="G65" s="17">
-        <f>(E65+F65)</f>
-        <v>417</v>
-      </c>
-      <c r="H65" s="21">
-        <f>SUM(H58:H64)</f>
-        <v>61</v>
-      </c>
-      <c r="I65" s="21">
-        <f>SUM(I58:I64)</f>
-        <v>71</v>
-      </c>
-      <c r="J65" s="17">
-        <f>(H65+I65)</f>
-        <v>132</v>
-      </c>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="17">
-        <f>K58+L58</f>
-        <v>665</v>
-      </c>
-      <c r="N65" s="21">
-        <v>2.1701388888888892E-2</v>
-      </c>
-      <c r="O65" s="21">
-        <v>8.7465277777777781E-2</v>
-      </c>
-      <c r="P65" s="21">
-        <v>0.1171</v>
-      </c>
-      <c r="Q65" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="96">
-        <v>42897</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66">
-        <v>62</v>
-      </c>
-      <c r="E66">
-        <v>26</v>
-      </c>
-      <c r="F66">
-        <v>35</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>15</v>
-      </c>
-      <c r="K66">
-        <v>229</v>
-      </c>
-      <c r="L66">
-        <v>304</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="96">
-        <v>42896</v>
-      </c>
-      <c r="B67">
-        <v>206</v>
-      </c>
-      <c r="C67">
-        <v>76</v>
-      </c>
-      <c r="E67">
-        <v>34</v>
-      </c>
-      <c r="F67">
-        <v>43</v>
-      </c>
-      <c r="H67">
-        <v>9</v>
-      </c>
-      <c r="I67">
-        <v>12</v>
-      </c>
-      <c r="K67">
-        <v>224</v>
-      </c>
-      <c r="L67">
-        <v>289</v>
-      </c>
-      <c r="P67">
-        <v>22.2</v>
-      </c>
-      <c r="Q67">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="96">
-        <v>42895</v>
-      </c>
-      <c r="B68">
-        <v>103</v>
-      </c>
-      <c r="C68">
-        <v>33</v>
-      </c>
-      <c r="E68">
-        <v>20</v>
-      </c>
-      <c r="F68">
-        <v>20</v>
-      </c>
-      <c r="H68">
-        <v>3</v>
-      </c>
-      <c r="I68">
-        <v>7</v>
-      </c>
-      <c r="K68">
-        <v>215</v>
-      </c>
-      <c r="L68">
-        <v>277</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="96">
-        <v>42894</v>
-      </c>
-      <c r="B69">
-        <v>156</v>
-      </c>
-      <c r="C69">
-        <v>30</v>
-      </c>
-      <c r="E69">
-        <v>22</v>
-      </c>
-      <c r="F69">
-        <v>22</v>
-      </c>
-      <c r="H69">
-        <v>8</v>
-      </c>
-      <c r="I69">
-        <v>9</v>
-      </c>
-      <c r="K69">
-        <v>212</v>
-      </c>
-      <c r="L69">
-        <v>270</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="96"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="96"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="96"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="96"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="96"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="96"/>
+    <row r="34" spans="1:17">
+      <c r="A34" s="54"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="54"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="54"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="54"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="54"/>
     </row>
   </sheetData>
   <sortState ref="A2:Q3">
@@ -13542,6 +12182,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D9" formula="1"/>
   </ignoredErrors>
@@ -13556,16 +12197,16 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="8.83203125" style="5"/>
-    <col min="14" max="15" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="8.77734375" style="5"/>
+    <col min="14" max="15" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="48.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -13618,7 +12259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -13665,7 +12306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -13710,7 +12351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -13755,7 +12396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -13800,7 +12441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -13845,7 +12486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -13890,7 +12531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -13935,7 +12576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="27.75" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>48</v>
       </c>
@@ -13990,7 +12631,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -14035,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -14080,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -14125,7 +12766,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -14170,7 +12811,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -14215,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -14260,7 +12901,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -14305,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="21" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -14364,7 +13005,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -14409,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -14454,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -14499,7 +13140,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -14544,7 +13185,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -14589,7 +13230,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -14634,7 +13275,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -14679,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="20.25" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -14738,7 +13379,7 @@
         <v>9.69E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -14783,7 +13424,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -14828,7 +13469,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -14873,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -14918,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -14963,7 +13604,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -15008,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -15053,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="21" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>47</v>
       </c>
@@ -15112,7 +13753,7 @@
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -15157,7 +13798,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -15180,8 +13821,8 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="39" spans="1:17" s="93" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92"/>
+    <row r="39" spans="1:17" s="97" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A39" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15201,18 +13842,18 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="8.83203125" style="6"/>
+    <col min="3" max="3" width="17.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.77734375" style="6"/>
     <col min="14" max="14" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="33"/>
-    <col min="16" max="16384" width="8.83203125" style="6"/>
+    <col min="15" max="15" width="8.77734375" style="33"/>
+    <col min="16" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" customFormat="1" ht="48.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -15265,7 +13906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -15312,7 +13953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -15357,7 +13998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -15402,7 +14043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -15447,7 +14088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -15492,7 +14133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -15537,7 +14178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -15582,7 +14223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" customFormat="1" ht="30.75" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>48</v>
       </c>
@@ -15617,7 +14258,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -15662,7 +14303,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -15707,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -15752,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -15797,7 +14438,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -15842,7 +14483,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -15887,7 +14528,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -15932,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" customFormat="1" ht="30.75" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
@@ -15971,7 +14612,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -16016,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -16061,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -16106,7 +14747,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -16151,7 +14792,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -16196,7 +14837,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -16241,7 +14882,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -16286,7 +14927,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" customFormat="1" ht="30.75" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -16325,7 +14966,7 @@
         <v>0.1234</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -16370,7 +15011,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -16415,7 +15056,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -16460,7 +15101,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -16505,7 +15146,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -16550,7 +15191,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -16595,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -16640,7 +15281,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" customFormat="1" ht="30.75" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>47</v>
       </c>
@@ -16679,7 +15320,7 @@
         <v>0.19769999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -16724,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="23"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -16747,7 +15388,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="H36" s="6">
         <f>AVERAGE(H9,H17,H25,H33)/7</f>
         <v>46.928571428571431</v>
@@ -16759,7 +15400,7 @@
       <c r="N36" s="32"/>
       <c r="O36" s="32"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
@@ -16778,15 +15419,15 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="8.77734375" style="5"/>
     <col min="14" max="15" width="9" style="34" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="5"/>
+    <col min="16" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
@@ -16839,7 +15480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -16886,7 +15527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -16931,7 +15572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -16976,7 +15617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -17021,7 +15662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -17066,7 +15707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -17111,7 +15752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -17156,7 +15797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>52</v>
       </c>
@@ -17187,7 +15828,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -17232,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -17277,7 +15918,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -17322,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -17367,7 +16008,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -17412,7 +16053,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -17457,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -17502,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>53</v>
       </c>
@@ -17537,7 +16178,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -17582,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -17627,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -17672,7 +16313,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -17717,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -17762,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -17807,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -17852,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -17887,7 +16528,7 @@
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -17932,7 +16573,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -17977,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -18022,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -18067,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -18112,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -18157,7 +16798,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -18202,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>47</v>
       </c>
@@ -18237,7 +16878,7 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -18282,7 +16923,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="23"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -18305,7 +16946,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="B36" s="6">
         <f>AVERAGE(B2:B34)</f>
         <v>5.7241379310344831</v>
@@ -18315,7 +16956,7 @@
         <v>6.3103448275862073</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
@@ -18333,15 +16974,15 @@
       <selection pane="bottomLeft" activeCell="I33" activeCellId="3" sqref="I9 I17 I25 I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="8.83203125" style="5"/>
-    <col min="11" max="12" width="8.83203125" style="34"/>
-    <col min="13" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="8.77734375" style="5"/>
+    <col min="11" max="12" width="8.77734375" style="34"/>
+    <col min="13" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" customFormat="1" ht="48.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -18395,7 +17036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -18443,7 +17084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -18489,7 +17130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -18535,7 +17176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -18581,7 +17222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -18627,7 +17268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -18673,7 +17314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -18719,7 +17360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>48</v>
       </c>
@@ -18763,7 +17404,7 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -18809,7 +17450,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -18855,7 +17496,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -18901,7 +17542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -18947,7 +17588,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -18993,7 +17634,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -19039,7 +17680,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -19085,7 +17726,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>47</v>
       </c>
@@ -19133,7 +17774,7 @@
         <v>7.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -19179,7 +17820,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -19225,7 +17866,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -19271,7 +17912,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -19317,7 +17958,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -19363,7 +18004,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -19409,7 +18050,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -19455,7 +18096,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" customFormat="1" ht="24.75" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -19503,7 +18144,7 @@
         <v>5.4899999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -19549,7 +18190,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -19595,7 +18236,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -19641,7 +18282,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -19687,7 +18328,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -19733,7 +18374,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -19779,7 +18420,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -19825,7 +18466,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" customFormat="1" ht="24.75" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>47</v>
       </c>
@@ -19873,7 +18514,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -19919,7 +18560,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="23"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -19943,7 +18584,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
@@ -19960,13 +18601,13 @@
       <selection activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="53.25" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -20019,7 +18660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -20066,7 +18707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -20111,7 +18752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -20156,7 +18797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -20201,7 +18842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -20246,7 +18887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -20291,7 +18932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -20336,7 +18977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
@@ -20367,7 +19008,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -20412,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -20457,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -20502,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -20547,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -20592,7 +19233,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -20637,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -20682,7 +19323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -20717,7 +19358,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -20762,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -20807,7 +19448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -20852,7 +19493,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -20897,7 +19538,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -20942,7 +19583,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -20987,7 +19628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -21032,7 +19673,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="23" t="s">
         <v>48</v>
       </c>
@@ -21067,7 +19708,7 @@
         <v>0.15409999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -21112,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -21157,7 +19798,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -21202,7 +19843,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -21247,7 +19888,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -21292,7 +19933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -21337,7 +19978,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -21382,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
@@ -21417,7 +20058,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -21462,7 +20103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="23"/>
       <c r="B35" s="6">
         <f>AVERAGE(B1:B33)</f>
@@ -21491,7 +20132,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
@@ -21508,13 +20149,13 @@
       <selection activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="53.25" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -21567,7 +20208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -21614,7 +20255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -21659,7 +20300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -21704,7 +20345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -21749,7 +20390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -21794,7 +20435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -21839,7 +20480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -21884,7 +20525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
@@ -21915,7 +20556,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -21960,7 +20601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -22005,7 +20646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -22050,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -22095,7 +20736,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -22140,7 +20781,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -22185,7 +20826,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -22230,7 +20871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -22265,7 +20906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -22310,7 +20951,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -22355,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -22400,7 +21041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -22445,7 +21086,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -22490,7 +21131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -22535,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -22580,7 +21221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="23" t="s">
         <v>48</v>
       </c>
@@ -22615,7 +21256,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -22660,7 +21301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -22705,7 +21346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -22750,7 +21391,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -22795,7 +21436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -22840,7 +21481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -22885,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -22930,7 +21571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
@@ -22965,7 +21606,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -23010,7 +21651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="23"/>
       <c r="B35" s="6">
         <f>AVERAGE(B1:B33)</f>
@@ -23039,7 +21680,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
@@ -23056,13 +21697,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="52.5" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -23115,7 +21756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19">
         <v>42942</v>
       </c>
@@ -23162,7 +21803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19">
         <v>42941</v>
       </c>
@@ -23207,7 +21848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19">
         <v>42940</v>
       </c>
@@ -23252,7 +21893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19">
         <v>42939</v>
       </c>
@@ -23297,7 +21938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="19">
         <v>42938</v>
       </c>
@@ -23342,7 +21983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19">
         <v>42937</v>
       </c>
@@ -23387,7 +22028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19">
         <v>42936</v>
       </c>
@@ -23432,7 +22073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
@@ -23463,7 +22104,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19">
         <v>42935</v>
       </c>
@@ -23508,7 +22149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="19">
         <v>42934</v>
       </c>
@@ -23553,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="19">
         <v>42933</v>
       </c>
@@ -23598,7 +22239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19">
         <v>42932</v>
       </c>
@@ -23643,7 +22284,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>42931</v>
       </c>
@@ -23688,7 +22329,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="19">
         <v>42930</v>
       </c>
@@ -23733,7 +22374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19">
         <v>42929</v>
       </c>
@@ -23778,7 +22419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -23813,7 +22454,7 @@
         <v>3.8899999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19">
         <v>42928</v>
       </c>
@@ -23858,7 +22499,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19">
         <v>42927</v>
       </c>
@@ -23903,7 +22544,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19">
         <v>42926</v>
       </c>
@@ -23948,7 +22589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="19">
         <v>42925</v>
       </c>
@@ -23993,7 +22634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="19">
         <v>42924</v>
       </c>
@@ -24038,7 +22679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19">
         <v>42923</v>
       </c>
@@ -24083,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="19">
         <v>42922</v>
       </c>
@@ -24128,7 +22769,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="23" t="s">
         <v>48</v>
       </c>
@@ -24163,7 +22804,7 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="19">
         <v>42921</v>
       </c>
@@ -24208,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="19">
         <v>42920</v>
       </c>
@@ -24253,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="19">
         <v>42919</v>
       </c>
@@ -24298,7 +22939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="19">
         <v>42918</v>
       </c>
@@ -24343,7 +22984,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="19">
         <v>42917</v>
       </c>
@@ -24388,7 +23029,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="19">
         <v>42916</v>
       </c>
@@ -24433,7 +23074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="19">
         <v>42915</v>
       </c>
@@ -24478,7 +23119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
@@ -24513,7 +23154,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="19">
         <v>42914</v>
       </c>
@@ -24558,7 +23199,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="23"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -24581,7 +23222,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="6"/>
     </row>
   </sheetData>
